--- a/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/4_wy2016-2018/4_pTHg Model Results.xlsx
+++ b/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/4_wy2016-2018/4_pTHg Model Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slrose\R\2018_CCSB_LoadsData_WY2010-2017\Model Stats_rloadest\4_wy2016-2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A0D17C-14E6-414C-B643-7A02FA0B64C4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C851288-2E05-42CA-8C9B-46015AB00482}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="105" windowWidth="16440" windowHeight="28440" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pTHg wy2016-18 Model Results" sheetId="2" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="479">
   <si>
     <t>Model #</t>
   </si>
@@ -201,36 +201,6 @@
     <t>pTHg wy 2016-18</t>
   </si>
   <si>
-    <t>Outlet pTHg (No samples at Spillway for wy2018)</t>
-  </si>
-  <si>
-    <t>In loadReg(pTHg ~ model(1), data = pTHg_Outlet, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(pTHg ~ model(2), data = pTHg_Outlet, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(pTHg ~ model(3), data = pTHg_Outlet, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(pTHg ~ model(4), data = pTHg_Outlet, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(pTHg ~ model(5), data = pTHg_Outlet, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(pTHg ~ model(6), data = pTHg_Outlet, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(pTHg ~ model(7), data = pTHg_Outlet, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(pTHg ~ model(8), data = pTHg_Outlet, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(pTHg ~ model(9), data = pTHg_Outlet, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
     <t>Rumsey pTHg</t>
   </si>
   <si>
@@ -922,6 +892,621 @@
   </si>
   <si>
     <t>25.42, 27.56, 38.86</t>
+  </si>
+  <si>
+    <t>Outflow pTHg (Using Combined Outflow Inst.Flow for models only)</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_Outflowm1 &lt;- loadReg(pTHg ~model(1), data = pTHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(1), data = pTHg_Outflow, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_Outflowm1</t>
+  </si>
+  <si>
+    <t>Station: CCSB-Yolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Number of Observations: 31</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Center of Decimal Time: 2016.949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  Center of ln(Q): 5.555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Period of record: 2016-01-20 to 2018-04-08</t>
+  </si>
+  <si>
+    <t>(Intercept)   -4.045     0.2403  -16.83       0</t>
+  </si>
+  <si>
+    <t>lnQ            1.372     0.1014   13.52       0</t>
+  </si>
+  <si>
+    <t>Residual variance: 1.382</t>
+  </si>
+  <si>
+    <t>R-squared: 86.31 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 61.65 on 1 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.4597</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.5325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Min  25% 50% 75%  90%   95%   Max</t>
+  </si>
+  <si>
+    <t>Est   0 0.03 0.1 1.3 5.93  7.35  7.55</t>
+  </si>
+  <si>
+    <t>Obs   0 0.01 0.1 0.6 7.52 14.40 14.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -25.89 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.7411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.7476</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_Outflowm2 &lt;- loadReg(pTHg ~model(2), data = pTHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(2), data = pTHg_Outflow, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_Outflowm2</t>
+  </si>
+  <si>
+    <t>(Intercept)  -4.5515    0.22908 -19.868   0e+00</t>
+  </si>
+  <si>
+    <t>lnQ           1.3717    0.08154  16.823   0e+00</t>
+  </si>
+  <si>
+    <t>lnQ2          0.0902    0.02195   4.109   1e-04</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.8932</t>
+  </si>
+  <si>
+    <t>R-squared: 91.46 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 76.28 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.15</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.6346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Min  25%  50%  75%   90%  95%  Max</t>
+  </si>
+  <si>
+    <t>Est   0 0.02 0.05 1.19 10.40 14.3 14.9</t>
+  </si>
+  <si>
+    <t>Obs   0 0.01 0.10 0.60  7.52 14.4 14.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 19.8 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.9033</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_Outflowm3 &lt;- loadReg(pTHg ~model(3), data = pTHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(3), data = pTHg_Outflow, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_Outflowm3</t>
+  </si>
+  <si>
+    <t>(Intercept)  -4.1162     0.2588 -15.9023  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.3713     0.1022  13.4232  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.2669     0.3458  -0.7718  0.4192</t>
+  </si>
+  <si>
+    <t>Residual variance: 1.402</t>
+  </si>
+  <si>
+    <t>R-squared: 86.6 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 62.3 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.3217</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.5194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        VIF</t>
+  </si>
+  <si>
+    <t>lnQ       1</t>
+  </si>
+  <si>
+    <t>DECTIME   1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Min  25%  50%  75%  90%   95%   Max</t>
+  </si>
+  <si>
+    <t>Est   0 0.03 0.11 1.24 5.27  6.47  6.88</t>
+  </si>
+  <si>
+    <t>Obs   0 0.01 0.10 0.60 7.52 14.40 14.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -30.96 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.6904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.6916</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_Outflowm4 &lt;- loadReg(pTHg ~model(4), data = pTHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(4), data = pTHg_Outflow, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_Outflowm4</t>
+  </si>
+  <si>
+    <t>(Intercept)  -5.2255     1.0422 -5.0140  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.3529     0.1084 12.4799  0.0000</t>
+  </si>
+  <si>
+    <t>sin.DECTIME   0.3981     0.9728  0.4092  0.6615</t>
+  </si>
+  <si>
+    <t>cos.DECTIME   1.7285     0.9399  1.8391  0.0558</t>
+  </si>
+  <si>
+    <t>Residual variance: 1.137</t>
+  </si>
+  <si>
+    <t>R-squared: 89.52 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 69.92 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.5092</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3888</t>
+  </si>
+  <si>
+    <t>lnQ         1.389</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 4.070</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 3.646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Min  25%  50%  75%  90%   95%  Max</t>
+  </si>
+  <si>
+    <t>Est   0 0.02 0.12 1.11 7.34  9.22 10.8</t>
+  </si>
+  <si>
+    <t>Obs   0 0.01 0.10 0.60 7.52 14.40 14.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -12.68 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.8732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.889</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_Outflowm5 &lt;- loadReg(pTHg ~model(5), data = pTHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(5), data = pTHg_Outflow, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_Outflowm5</t>
+  </si>
+  <si>
+    <t>(Intercept) -4.73970    0.23871 -19.856   0.000</t>
+  </si>
+  <si>
+    <t>lnQ          1.37085    0.07773  17.637   0.000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.09888    0.02139   4.622   0.000</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.52517    0.26894  -1.953   0.043</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.8116</t>
+  </si>
+  <si>
+    <t>R-squared: 92.52 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 80.37 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.6199</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.5498</t>
+  </si>
+  <si>
+    <t>lnQ     1.000</t>
+  </si>
+  <si>
+    <t>lnQ2    1.045</t>
+  </si>
+  <si>
+    <t>DECTIME 1.045</t>
+  </si>
+  <si>
+    <t>Est   0 0.01 0.06 1.09 8.58 11.8 13.1</t>
+  </si>
+  <si>
+    <t>Obs   0 0.01 0.10 0.60 7.52 14.4 14.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 4.851 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.9365</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_Outflowm6 &lt;- loadReg(pTHg ~model(6), data = pTHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(6), data = pTHg_Outflow, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_Outflowm6</t>
+  </si>
+  <si>
+    <t>(Intercept) -5.93257    0.89512  -6.628  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.31800    0.09129  14.437  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.07971    0.02253   3.538  0.0005</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  0.95888    0.82976   1.156  0.2127</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  1.63914    0.78728   2.082  0.0288</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.7969</t>
+  </si>
+  <si>
+    <t>R-squared: 92.93 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 82.11 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.3761</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.4792</t>
+  </si>
+  <si>
+    <t>lnQ         1.405</t>
+  </si>
+  <si>
+    <t>lnQ2        1.181</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 4.224</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 3.649</t>
+  </si>
+  <si>
+    <t>Est   0 0.01 0.06 1.06 11.30 14.0 14.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 19.4 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8701</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_Outflowm7 &lt;- loadReg(pTHg ~model(7), data = pTHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(7), data = pTHg_Outflow, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_Outflowm7</t>
+  </si>
+  <si>
+    <t>(Intercept)  -5.1888     1.1662 -4.44930  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.3551     0.1142 11.87011  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.0277     0.3646 -0.07598  0.9339</t>
+  </si>
+  <si>
+    <t>sin.DECTIME   0.3597     1.1129  0.32318  0.7244</t>
+  </si>
+  <si>
+    <t>cos.DECTIME   1.6875     1.0992  1.53521  0.1010</t>
+  </si>
+  <si>
+    <t>Residual variance: 1.18</t>
+  </si>
+  <si>
+    <t>G-squared: 69.93 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.5072</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3904</t>
+  </si>
+  <si>
+    <t>lnQ         1.483</t>
+  </si>
+  <si>
+    <t>DECTIME     1.321</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 5.130</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 4.803</t>
+  </si>
+  <si>
+    <t>Est   0 0.02 0.12 1.13 7.21  9.34 10.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -12.84 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.8716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8923</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_Outflowm8 &lt;- loadReg(pTHg ~model(8), data = pTHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(8), data = pTHg_Outflow, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_Outflowm8</t>
+  </si>
+  <si>
+    <t>(Intercept) -5.56807    0.96295 -5.7823  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.34035    0.09381 14.2885  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.08572    0.02326  3.6845  0.0002</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.31598    0.30938 -1.0213  0.2603</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  0.56273    0.91533  0.6148  0.4952</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  1.16484    0.91348  1.2752  0.1622</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.7956</t>
+  </si>
+  <si>
+    <t>R-squared: 93.21 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 83.38 on 5 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.3056</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.4985</t>
+  </si>
+  <si>
+    <t>lnQ         1.486</t>
+  </si>
+  <si>
+    <t>lnQ2        1.261</t>
+  </si>
+  <si>
+    <t>DECTIME     1.411</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 5.149</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 4.922</t>
+  </si>
+  <si>
+    <t>Est   0 0.01 0.06 1.12 9.86 12.3 14.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 11.44 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.928</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_Outflowm9 &lt;- loadReg(pTHg ~model(9), data = pTHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(9), data = pTHg_Outflow, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_Outflowm9</t>
+  </si>
+  <si>
+    <t>(Intercept) -5.28902     0.9985 -5.2971  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.41488     0.1181 11.9837  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.09872     0.0264  3.7396  0.0002</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.44032     0.3314 -1.3287  0.1380</t>
+  </si>
+  <si>
+    <t>DECTIME2     0.57809     0.5576  1.0368  0.2438</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -0.16039     1.1497 -0.1395  0.8740</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  0.65725     1.0352  0.6349  0.4724</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.7932</t>
+  </si>
+  <si>
+    <t>R-squared: 93.5 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 84.73 on 6 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.1156</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.5476</t>
+  </si>
+  <si>
+    <t>lnQ2        1.629</t>
+  </si>
+  <si>
+    <t>DECTIME     1.624</t>
+  </si>
+  <si>
+    <t>DECTIME2    2.364</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 8.147</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 6.339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Min  25%  50% 75%  90%  95%  Max</t>
+  </si>
+  <si>
+    <t>Est   0 0.01 0.07 1.2 8.78 12.8 16.2</t>
+  </si>
+  <si>
+    <t>Obs   0 0.01 0.10 0.6 7.52 14.4 14.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 12.29 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.9652</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 31; Period of record: 2016-01-20 to 2018-04-08</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>27.68, 31.14, 65.10</t>
+  </si>
+  <si>
+    <t>27.61, 25.91, 24.09</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1282,6 +1867,21 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1306,16 +1906,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1785,14 +2376,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AD30"/>
+  <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O34" sqref="O33:O34"/>
+      <selection pane="bottomLeft" activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
     <col min="2" max="5" width="10.7109375" style="1" customWidth="1"/>
@@ -1800,38 +2391,39 @@
     <col min="8" max="11" width="10.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" style="30" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" style="6" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="2"/>
+    <col min="14" max="14" width="2.5703125" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" style="30" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" style="6" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="44"/>
-      <c r="N1" s="21"/>
-      <c r="Q1" s="21"/>
-    </row>
-    <row r="2" spans="1:30" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="M1" s="49"/>
+      <c r="O1" s="21"/>
+      <c r="R1" s="21"/>
+    </row>
+    <row r="2" spans="1:31" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
@@ -1871,12 +2463,13 @@
       <c r="M2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="25"/>
+      <c r="N2"/>
       <c r="O2" s="25"/>
       <c r="P2" s="25"/>
-      <c r="Q2" s="3"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="Q2" s="25"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="21"/>
       <c r="B3" s="26" t="s">
         <v>30</v>
@@ -1912,15 +2505,15 @@
       <c r="M3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="O3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="33"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="27"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="35"/>
       <c r="R3" s="27"/>
-    </row>
-    <row r="4" spans="1:30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="S3" s="27"/>
+    </row>
+    <row r="4" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>36</v>
       </c>
@@ -1951,50 +2544,55 @@
       <c r="M4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="29" t="s">
+      <c r="O4" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="34"/>
-      <c r="P4" s="36"/>
-    </row>
-    <row r="5" spans="1:30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="P5" s="37"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B6" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="51"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="36"/>
+    </row>
+    <row r="5" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q5" s="37"/>
+      <c r="S5" s="8"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B6" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="56"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="45" t="s">
+      <c r="R6" s="1"/>
+      <c r="S6" s="8"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B7" s="51" t="s">
+        <v>473</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="45"/>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:30" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="M7" s="50"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="9"/>
+    </row>
+    <row r="8" spans="1:31" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -2035,23 +2633,26 @@
         <v>4</v>
       </c>
       <c r="N8" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="O8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="20" t="s">
+      <c r="P8" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="P8" s="38" t="s">
+      <c r="Q8" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="6">
         <v>0</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -2069,35 +2670,51 @@
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="31"/>
+      <c r="I9" s="6">
+        <v>86.31</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.4597</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.53249999999999997</v>
+      </c>
+      <c r="L9" s="6">
+        <v>-25.89</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0.74760000000000004</v>
+      </c>
+      <c r="N9" s="6">
+        <v>1</v>
+      </c>
       <c r="O9" s="31"/>
       <c r="P9" s="31"/>
-      <c r="Q9" s="8" t="s">
+      <c r="Q9" s="31"/>
+      <c r="R9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD9" s="9" t="s">
+      <c r="T9" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB9" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="9"/>
+    </row>
+    <row r="10" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="39">
         <v>2</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="6">
         <v>0</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="57">
+        <v>1E-4</v>
+      </c>
       <c r="D10" s="10" t="s">
         <v>9</v>
       </c>
@@ -2110,38 +2727,60 @@
       <c r="G10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="8" t="s">
+      <c r="I10" s="6">
+        <v>91.46</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0.63460000000000005</v>
+      </c>
+      <c r="L10" s="6">
+        <v>19.8</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0.90329999999999999</v>
+      </c>
+      <c r="N10" s="6">
+        <v>2</v>
+      </c>
+      <c r="O10" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="P10" s="31" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>477</v>
+      </c>
+      <c r="R10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD10" s="9" t="s">
+      <c r="T10" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB10" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="9"/>
+    </row>
+    <row r="11" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="31">
         <v>3</v>
       </c>
-      <c r="B11" s="40">
+      <c r="B11" s="31">
         <v>0</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="32"/>
+      <c r="D11" s="32">
+        <v>0.41920000000000002</v>
+      </c>
       <c r="E11" s="10" t="s">
         <v>9</v>
       </c>
@@ -2151,32 +2790,46 @@
       <c r="G11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="H11" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
+      <c r="I11" s="31">
+        <v>86.6</v>
+      </c>
+      <c r="J11" s="31">
+        <v>0.32169999999999999</v>
+      </c>
+      <c r="K11" s="31">
+        <v>0.51939999999999997</v>
+      </c>
+      <c r="L11" s="31">
+        <v>-30.96</v>
+      </c>
+      <c r="M11" s="31">
+        <v>0.69159999999999999</v>
+      </c>
+      <c r="N11" s="31">
+        <v>3</v>
+      </c>
       <c r="O11" s="31"/>
       <c r="P11" s="31"/>
-      <c r="Q11" s="8" t="s">
+      <c r="Q11" s="31"/>
+      <c r="R11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD11" s="9" t="s">
+      <c r="T11" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB11" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="9"/>
+    </row>
+    <row r="12" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="39">
         <v>4</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="6">
         <v>0</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -2188,241 +2841,370 @@
       <c r="E12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="11" t="s">
+      <c r="F12" s="6">
+        <v>0.66149999999999998</v>
+      </c>
+      <c r="G12" s="44">
+        <v>5.5800000000000002E-2</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
+      <c r="I12" s="44">
+        <v>89.52</v>
+      </c>
+      <c r="J12" s="44">
+        <v>0.50919999999999999</v>
+      </c>
+      <c r="K12" s="44">
+        <v>0.38879999999999998</v>
+      </c>
+      <c r="L12" s="44">
+        <v>-12.68</v>
+      </c>
+      <c r="M12" s="44">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="N12" s="31">
+        <v>4</v>
+      </c>
       <c r="O12" s="39"/>
-      <c r="Q12" s="8" t="s">
+      <c r="P12" s="39"/>
+      <c r="R12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD12" s="9" t="s">
+      <c r="T12" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="AB12" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A13" s="39">
+      <c r="AE12" s="9"/>
+    </row>
+    <row r="13" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
         <v>5</v>
       </c>
       <c r="B13" s="11">
         <v>0</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="10" t="s">
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E13" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="47" t="s">
         <v>9</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="Q13" s="8" t="s">
+      <c r="I13" s="11">
+        <v>92.52</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0.61990000000000001</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0.54979999999999996</v>
+      </c>
+      <c r="L13" s="11">
+        <v>4.851</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0.9365</v>
+      </c>
+      <c r="N13" s="45">
+        <v>5</v>
+      </c>
+      <c r="O13" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="P13" s="45" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q13" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="R13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD13" s="9" t="s">
+      <c r="T13" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB13" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="9"/>
+    </row>
+    <row r="14" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="39">
         <v>6</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="6">
         <v>0</v>
       </c>
-      <c r="C14" s="39"/>
+      <c r="C14" s="44">
+        <v>5.0000000000000001E-4</v>
+      </c>
       <c r="D14" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="11" t="s">
+      <c r="F14" s="6">
+        <v>0.2127</v>
+      </c>
+      <c r="G14" s="44">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
+      <c r="I14" s="44">
+        <v>92.93</v>
+      </c>
+      <c r="J14" s="44">
+        <v>0.37609999999999999</v>
+      </c>
+      <c r="K14" s="44">
+        <v>0.47920000000000001</v>
+      </c>
+      <c r="L14" s="44">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="M14" s="44">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="N14" s="31">
+        <v>6</v>
+      </c>
       <c r="O14" s="39"/>
-      <c r="Q14" s="8" t="s">
+      <c r="P14" s="39"/>
+      <c r="R14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD14" s="9" t="s">
+      <c r="T14" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB14" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="9"/>
+    </row>
+    <row r="15" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="39">
         <v>7</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="6">
         <v>0</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="6">
+        <v>0.93389999999999995</v>
+      </c>
       <c r="E15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="11" t="s">
+      <c r="F15" s="6">
+        <v>0.72440000000000004</v>
+      </c>
+      <c r="G15" s="44">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
+      <c r="I15" s="44">
+        <v>89.52</v>
+      </c>
+      <c r="J15" s="44">
+        <v>0.50719999999999998</v>
+      </c>
+      <c r="K15" s="44">
+        <v>0.39040000000000002</v>
+      </c>
+      <c r="L15" s="44">
+        <v>-12.84</v>
+      </c>
+      <c r="M15" s="44">
+        <v>0.89229999999999998</v>
+      </c>
+      <c r="N15" s="31">
+        <v>7</v>
+      </c>
       <c r="O15" s="39"/>
-      <c r="Q15" s="8" t="s">
+      <c r="P15" s="39"/>
+      <c r="R15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S15" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD15" s="9" t="s">
+      <c r="T15" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="AB15" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="9"/>
+    </row>
+    <row r="16" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="39">
         <v>8</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="6">
         <v>0</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="6"/>
+      <c r="C16" s="44">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.26029999999999998</v>
+      </c>
       <c r="E16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="11" t="s">
+      <c r="F16" s="6">
+        <v>0.49519999999999997</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.16220000000000001</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
+      <c r="I16" s="44">
+        <v>93.21</v>
+      </c>
+      <c r="J16" s="44">
+        <v>0.30559999999999998</v>
+      </c>
+      <c r="K16" s="44">
+        <v>0.4985</v>
+      </c>
+      <c r="L16" s="44">
+        <v>11.44</v>
+      </c>
+      <c r="M16" s="44">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="N16" s="31">
+        <v>8</v>
+      </c>
       <c r="O16" s="39"/>
-      <c r="Q16" s="8" t="s">
+      <c r="P16" s="39"/>
+      <c r="R16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S16" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD16" s="9" t="s">
+      <c r="T16" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="AB16" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="9"/>
+    </row>
+    <row r="17" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="39">
         <v>9</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="6">
         <v>0</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="11" t="s">
+      <c r="C17" s="44">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.24379999999999999</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.874</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.47239999999999999</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
+      <c r="I17" s="44">
+        <v>93.5</v>
+      </c>
+      <c r="J17" s="44">
+        <v>0.11559999999999999</v>
+      </c>
+      <c r="K17" s="44">
+        <v>0.54759999999999998</v>
+      </c>
+      <c r="L17" s="44">
+        <v>12.29</v>
+      </c>
+      <c r="M17" s="44">
+        <v>0.96519999999999995</v>
+      </c>
+      <c r="N17" s="31">
+        <v>9</v>
+      </c>
       <c r="O17" s="39"/>
-      <c r="Q17" s="8" t="s">
+      <c r="P17" s="39"/>
+      <c r="R17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD17" s="9" t="s">
+      <c r="T17" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="AB17" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B19" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B20" s="46" t="s">
-        <v>281</v>
-      </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="45" t="s">
+      <c r="AE17" s="9"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B19" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B20" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="45"/>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:30" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="M20" s="50"/>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="1:31" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
@@ -2463,19 +3245,22 @@
         <v>4</v>
       </c>
       <c r="N21" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="O21" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="O21" s="20" t="s">
+      <c r="P21" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="P21" s="38" t="s">
+      <c r="Q21" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>1</v>
       </c>
@@ -2515,20 +3300,23 @@
       <c r="M22" s="6">
         <v>0.45939999999999998</v>
       </c>
-      <c r="N22" s="31"/>
+      <c r="N22" s="6">
+        <v>1</v>
+      </c>
       <c r="O22" s="31"/>
       <c r="P22" s="31"/>
-      <c r="Q22" s="8" t="s">
+      <c r="Q22" s="31"/>
+      <c r="R22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S22" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC22" s="9" t="s">
+      <c r="T22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD22" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="39">
         <v>2</v>
       </c>
@@ -2568,39 +3356,42 @@
       <c r="M23" s="42">
         <v>-0.21229999999999999</v>
       </c>
-      <c r="N23" s="41"/>
+      <c r="N23" s="44">
+        <v>2</v>
+      </c>
       <c r="O23" s="41"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="8" t="s">
+      <c r="P23" s="41"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S23" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC23" s="9" t="s">
+      <c r="T23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD23" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="40">
         <v>3</v>
       </c>
       <c r="B24" s="40">
         <v>0</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="55">
+      <c r="D24" s="48">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="E24" s="54" t="s">
+      <c r="E24" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="54" t="s">
+      <c r="F24" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="54" t="s">
+      <c r="G24" s="47" t="s">
         <v>9</v>
       </c>
       <c r="H24" s="40" t="s">
@@ -2621,26 +3412,29 @@
       <c r="M24" s="31">
         <v>0.80620000000000003</v>
       </c>
-      <c r="N24" s="52" t="s">
-        <v>282</v>
-      </c>
-      <c r="O24" s="52" t="s">
-        <v>283</v>
-      </c>
-      <c r="P24" s="53" t="s">
+      <c r="N24" s="45">
+        <v>3</v>
+      </c>
+      <c r="O24" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="P24" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q24" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="Q24" s="8" t="s">
+      <c r="R24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S24" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC24" s="9" t="s">
+      <c r="T24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD24" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="39">
         <v>4</v>
       </c>
@@ -2680,19 +3474,22 @@
       <c r="M25" s="42">
         <v>8.5500000000000007E-2</v>
       </c>
-      <c r="N25" s="39"/>
+      <c r="N25" s="31">
+        <v>4</v>
+      </c>
       <c r="O25" s="39"/>
-      <c r="Q25" s="8" t="s">
+      <c r="P25" s="39"/>
+      <c r="R25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S25" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC25" s="9" t="s">
+      <c r="T25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD25" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="39">
         <v>5</v>
       </c>
@@ -2732,19 +3529,22 @@
       <c r="M26" s="42">
         <v>0.2283</v>
       </c>
-      <c r="N26" s="39"/>
+      <c r="N26" s="31">
+        <v>5</v>
+      </c>
       <c r="O26" s="39"/>
-      <c r="Q26" s="8" t="s">
+      <c r="P26" s="39"/>
+      <c r="R26" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S26" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC26" s="9" t="s">
+      <c r="T26" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD26" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="39">
         <v>6</v>
       </c>
@@ -2784,19 +3584,22 @@
       <c r="M27" s="42">
         <v>0.10199999999999999</v>
       </c>
-      <c r="N27" s="39"/>
+      <c r="N27" s="31">
+        <v>6</v>
+      </c>
       <c r="O27" s="39"/>
-      <c r="Q27" s="8" t="s">
+      <c r="P27" s="39"/>
+      <c r="R27" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S27" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC27" s="9" t="s">
+      <c r="T27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD27" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="39">
         <v>7</v>
       </c>
@@ -2836,19 +3639,22 @@
       <c r="M28" s="42">
         <v>0.51910000000000001</v>
       </c>
-      <c r="N28" s="39"/>
+      <c r="N28" s="31">
+        <v>7</v>
+      </c>
       <c r="O28" s="39"/>
-      <c r="Q28" s="8" t="s">
+      <c r="P28" s="39"/>
+      <c r="R28" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S28" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC28" s="9" t="s">
+      <c r="T28" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD28" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="39">
         <v>8</v>
       </c>
@@ -2888,19 +3694,22 @@
       <c r="M29" s="42">
         <v>0.28899999999999998</v>
       </c>
-      <c r="N29" s="39"/>
+      <c r="N29" s="31">
+        <v>8</v>
+      </c>
       <c r="O29" s="39"/>
-      <c r="Q29" s="8" t="s">
+      <c r="P29" s="39"/>
+      <c r="R29" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S29" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC29" s="9" t="s">
+      <c r="T29" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD29" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="39">
         <v>9</v>
       </c>
@@ -2940,15 +3749,18 @@
       <c r="M30" s="42">
         <v>-0.23599999999999999</v>
       </c>
-      <c r="N30" s="39"/>
+      <c r="N30" s="31">
+        <v>9</v>
+      </c>
       <c r="O30" s="39"/>
-      <c r="Q30" s="8" t="s">
+      <c r="P30" s="39"/>
+      <c r="R30" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S30" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC30" s="9" t="s">
+      <c r="T30" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD30" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3026,115 +3838,173 @@
   <dimension ref="A1:A528"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
+      <c r="A1" s="15" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
+      <c r="A2" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="15" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="14" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="14" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="14" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="14" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="14" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="14" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="14" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="14" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="14" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="14" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="14" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+      <c r="A28" s="14" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="14" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="14" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="14" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="14" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="14" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
@@ -3143,1465 +4013,2277 @@
       <c r="A37" s="13"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
+      <c r="A38" s="14" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
+      <c r="A39" s="14" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
+      <c r="A40" s="14" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
+      <c r="A41" s="14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
+      <c r="A42" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
+      <c r="A43" s="14" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
+      <c r="A44" s="14" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
+      <c r="A46" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
+      <c r="A47" s="14" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
+      <c r="A48" s="14" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
+      <c r="A49" s="14" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
+      <c r="A50" s="14" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
+      <c r="A52" s="15" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
+      <c r="A53" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
+      <c r="A54" s="7" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
+      <c r="A55" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
+      <c r="A56" s="15" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
+      <c r="A57" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
+      <c r="A59" s="14" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
+      <c r="A60" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
+      <c r="A62" s="14" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
+      <c r="A63" s="14" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
+      <c r="A64" s="14" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
+      <c r="A65" s="14" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
+      <c r="A66" s="14" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
+      <c r="A68" s="14" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
+      <c r="A69" s="14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
+      <c r="A71" s="14" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
+      <c r="A73" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
+      <c r="A74" s="14" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
+      <c r="A75" s="14" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
+      <c r="A76" s="14" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
+      <c r="A77" s="14" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
+      <c r="A79" s="14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
+      <c r="A80" s="14" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
+      <c r="A81" s="14" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
+      <c r="A82" s="14" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
+      <c r="A83" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
+      <c r="A84" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
+      <c r="A85" s="14" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
+      <c r="A86" s="14" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="14"/>
+      <c r="A87" s="14" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
+      <c r="A89" s="14" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
+      <c r="A90" s="14" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
+      <c r="A91" s="14" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="14"/>
+      <c r="A92" s="14" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="13"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="14"/>
+      <c r="A94" s="14" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="14"/>
+      <c r="A95" s="14" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="14"/>
+      <c r="A96" s="14" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="14"/>
+      <c r="A97" s="14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="14"/>
+      <c r="A98" s="14" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="14"/>
+      <c r="A99" s="14" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="14"/>
+      <c r="A100" s="14" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="14"/>
+      <c r="A102" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="14"/>
+      <c r="A103" s="14" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="14"/>
+      <c r="A104" s="14" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="14"/>
+      <c r="A105" s="14" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="14"/>
+      <c r="A106" s="14" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="13"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="15"/>
+      <c r="A108" s="15" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="7"/>
+      <c r="A109" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="7"/>
+      <c r="A110" s="7" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="7"/>
+      <c r="A111" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="15"/>
+      <c r="A112" s="15" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="14"/>
+      <c r="A113" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="13"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="14"/>
+      <c r="A115" s="14" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="14"/>
+      <c r="A116" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="13"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="14"/>
+      <c r="A118" s="14" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="14"/>
+      <c r="A119" s="14" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="14"/>
+      <c r="A120" s="14" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="14"/>
+      <c r="A121" s="14" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="14"/>
+      <c r="A122" s="14" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="13"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="14"/>
+      <c r="A124" s="14" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="14"/>
+      <c r="A125" s="14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="13"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="14"/>
+      <c r="A127" s="14" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="13"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="14"/>
+      <c r="A129" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="14"/>
+      <c r="A130" s="14" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="14"/>
+      <c r="A131" s="14" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="14"/>
+      <c r="A132" s="14" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="14"/>
+      <c r="A133" s="14" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="13"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="14"/>
+      <c r="A135" s="14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="14"/>
+      <c r="A136" s="14" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="14"/>
+      <c r="A137" s="14" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="14"/>
+      <c r="A138" s="14" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="14"/>
+      <c r="A139" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="14"/>
+      <c r="A140" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="14"/>
+      <c r="A141" s="14" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="14"/>
+      <c r="A142" s="14" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="14"/>
+      <c r="A143" s="14" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="13"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="14"/>
+      <c r="A145" s="14" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="14"/>
+      <c r="A146" s="14" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="14"/>
+      <c r="A147" s="14" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="14"/>
+      <c r="A148" s="14" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="13"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="14"/>
+      <c r="A150" s="14" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="14"/>
+      <c r="A151" s="14" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="14"/>
+      <c r="A152" s="14" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="14"/>
+      <c r="A153" s="14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="14"/>
+      <c r="A154" s="14" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="14"/>
+      <c r="A155" s="14" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="14"/>
+      <c r="A156" s="14" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="13"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="14"/>
+      <c r="A158" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="14"/>
+      <c r="A159" s="14" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="14"/>
+      <c r="A160" s="14" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="14"/>
+      <c r="A161" s="14" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="14"/>
+      <c r="A162" s="14" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="13"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="15"/>
+      <c r="A164" s="15" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="7"/>
+      <c r="A165" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="7"/>
+      <c r="A166" s="7" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="7"/>
+      <c r="A167" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="15"/>
+      <c r="A168" s="15" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="14"/>
+      <c r="A169" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="13"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="14"/>
+      <c r="A171" s="14" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="14"/>
+      <c r="A172" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="13"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="14"/>
+      <c r="A174" s="14" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="14"/>
+      <c r="A175" s="14" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="14"/>
+      <c r="A176" s="14" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="14"/>
+      <c r="A177" s="14" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="14"/>
+      <c r="A178" s="14" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="13"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="14"/>
+      <c r="A180" s="14" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="14"/>
+      <c r="A181" s="14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="13"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="14"/>
+      <c r="A183" s="14" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="13"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="14"/>
+      <c r="A185" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="14"/>
+      <c r="A186" s="14" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="14"/>
+      <c r="A187" s="14" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="14"/>
+      <c r="A188" s="14" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="14"/>
+      <c r="A189" s="14" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="14"/>
+      <c r="A190" s="14" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="13"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="14"/>
+      <c r="A192" s="14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="14"/>
+      <c r="A193" s="14" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="14"/>
+      <c r="A194" s="14" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="14"/>
+      <c r="A195" s="14" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="14"/>
+      <c r="A196" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="14"/>
+      <c r="A197" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="14"/>
+      <c r="A198" s="14" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="14"/>
+      <c r="A199" s="14" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="14"/>
+      <c r="A200" s="14" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="13"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="14"/>
+      <c r="A202" s="14" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="14"/>
+      <c r="A203" s="14" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="14"/>
+      <c r="A204" s="14" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="14"/>
+      <c r="A205" s="14" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="14"/>
+      <c r="A206" s="14" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="13"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="14"/>
+      <c r="A208" s="14" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="14"/>
+      <c r="A209" s="14" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="14"/>
+      <c r="A210" s="14" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="14"/>
+      <c r="A211" s="14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="14"/>
+      <c r="A212" s="14" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="14"/>
+      <c r="A213" s="14" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="14"/>
+      <c r="A214" s="14" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="13"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="14"/>
+      <c r="A216" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="14"/>
+      <c r="A217" s="14" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="14"/>
+      <c r="A218" s="14" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="14"/>
+      <c r="A219" s="14" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="14"/>
+      <c r="A220" s="14" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="13"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="15"/>
+      <c r="A222" s="15" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="7"/>
+      <c r="A223" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="7"/>
+      <c r="A224" s="7" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="7"/>
+      <c r="A225" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="15"/>
+      <c r="A226" s="15" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="14"/>
+      <c r="A227" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="13"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="14"/>
+      <c r="A229" s="14" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="14"/>
+      <c r="A230" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="13"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="14"/>
+      <c r="A232" s="14" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="14"/>
+      <c r="A233" s="14" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="14"/>
+      <c r="A234" s="14" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="14"/>
+      <c r="A235" s="14" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="14"/>
+      <c r="A236" s="14" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="13"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="14"/>
+      <c r="A238" s="14" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="14"/>
+      <c r="A239" s="14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="13"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="14"/>
+      <c r="A241" s="14" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="13"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="14"/>
+      <c r="A243" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="14"/>
+      <c r="A244" s="14" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="14"/>
+      <c r="A245" s="14" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="14"/>
+      <c r="A246" s="14" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="14"/>
+      <c r="A247" s="14" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="14"/>
+      <c r="A248" s="14" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="13"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="14"/>
+      <c r="A250" s="14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="14"/>
+      <c r="A251" s="14" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="14"/>
+      <c r="A252" s="14" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="14"/>
+      <c r="A253" s="14" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="14"/>
+      <c r="A254" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="14"/>
+      <c r="A255" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="14"/>
+      <c r="A256" s="14" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="14"/>
+      <c r="A257" s="14" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="14"/>
+      <c r="A258" s="14" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="13"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="14"/>
+      <c r="A260" s="14" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="14"/>
+      <c r="A261" s="14" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="14"/>
+      <c r="A262" s="14" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="14"/>
+      <c r="A263" s="14" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="14"/>
+      <c r="A264" s="14" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="13"/>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="14"/>
+      <c r="A266" s="14" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="14"/>
+      <c r="A267" s="14" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="14"/>
+      <c r="A268" s="14" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="14"/>
+      <c r="A269" s="14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="14"/>
+      <c r="A270" s="14" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="14"/>
+      <c r="A271" s="14" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="14"/>
+      <c r="A272" s="14" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="13"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="14"/>
+      <c r="A274" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="14"/>
+      <c r="A275" s="14" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="14"/>
+      <c r="A276" s="14" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="14"/>
+      <c r="A277" s="14" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="14"/>
+      <c r="A278" s="14" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="13"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="15"/>
+      <c r="A280" s="15" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="7"/>
+      <c r="A281" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="7"/>
+      <c r="A282" s="7" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="7"/>
+      <c r="A283" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="15"/>
+      <c r="A284" s="15" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="14"/>
+      <c r="A285" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="13"/>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="14"/>
+      <c r="A287" s="14" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="14"/>
+      <c r="A288" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="13"/>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="14"/>
+      <c r="A290" s="14" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="14"/>
+      <c r="A291" s="14" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="14"/>
+      <c r="A292" s="14" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="14"/>
+      <c r="A293" s="14" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="14"/>
+      <c r="A294" s="14" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="13"/>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="14"/>
+      <c r="A296" s="14" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="14"/>
+      <c r="A297" s="14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="13"/>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="14"/>
+      <c r="A299" s="14" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="13"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="14"/>
+      <c r="A301" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="14"/>
+      <c r="A302" s="14" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="14"/>
+      <c r="A303" s="14" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="14"/>
+      <c r="A304" s="14" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="14"/>
+      <c r="A305" s="14" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="14"/>
+      <c r="A306" s="14" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="14"/>
+      <c r="A307" s="14" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="13"/>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="14"/>
+      <c r="A309" s="14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="14"/>
+      <c r="A310" s="14" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="14"/>
+      <c r="A311" s="14" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="14"/>
+      <c r="A312" s="14" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="14"/>
+      <c r="A313" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="14"/>
+      <c r="A314" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="14"/>
+      <c r="A315" s="14" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="14"/>
+      <c r="A316" s="14" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="14"/>
+      <c r="A317" s="14" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="13"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="14"/>
+      <c r="A319" s="14" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="14"/>
+      <c r="A320" s="14" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="14"/>
+      <c r="A321" s="14" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="14"/>
+      <c r="A322" s="14" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="14"/>
+      <c r="A323" s="14" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="14"/>
+      <c r="A324" s="14" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="13"/>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="14"/>
+      <c r="A326" s="14" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="14"/>
+      <c r="A327" s="14" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="14"/>
+      <c r="A328" s="14" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="14"/>
+      <c r="A329" s="14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="14"/>
+      <c r="A330" s="14" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="14"/>
+      <c r="A331" s="14" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="14"/>
+      <c r="A332" s="14" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="13"/>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="14"/>
+      <c r="A334" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="14"/>
+      <c r="A335" s="14" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="14"/>
+      <c r="A336" s="14" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="14"/>
+      <c r="A337" s="14" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="14"/>
+      <c r="A338" s="14" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="13"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="15"/>
+      <c r="A340" s="15" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="7"/>
+      <c r="A341" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="7"/>
+      <c r="A342" s="7" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="7"/>
+      <c r="A343" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="15"/>
+      <c r="A344" s="15" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="14"/>
+      <c r="A345" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="13"/>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="14"/>
+      <c r="A347" s="14" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="14"/>
+      <c r="A348" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="13"/>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="14"/>
+      <c r="A350" s="14" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="14"/>
+      <c r="A351" s="14" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="14"/>
+      <c r="A352" s="14" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="14"/>
+      <c r="A353" s="14" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="14"/>
+      <c r="A354" s="14" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="13"/>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="14"/>
+      <c r="A356" s="14" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="14"/>
+      <c r="A357" s="14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="13"/>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="14"/>
+      <c r="A359" s="14" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="13"/>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="14"/>
+      <c r="A361" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="14"/>
+      <c r="A362" s="14" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="14"/>
+      <c r="A363" s="14" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="14"/>
+      <c r="A364" s="14" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="14"/>
+      <c r="A365" s="14" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="14"/>
+      <c r="A366" s="14" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="14"/>
+      <c r="A367" s="14" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="13"/>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="14"/>
+      <c r="A369" s="14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="14"/>
+      <c r="A370" s="14" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="14"/>
+      <c r="A371" s="14" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="14"/>
+      <c r="A372" s="14" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="14"/>
+      <c r="A373" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="14"/>
+      <c r="A374" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="14"/>
+      <c r="A375" s="14" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="14"/>
+      <c r="A376" s="14" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="14"/>
+      <c r="A377" s="14" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="13"/>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="14"/>
+      <c r="A379" s="14" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="14"/>
+      <c r="A380" s="14" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="14"/>
+      <c r="A381" s="14" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="14"/>
+      <c r="A382" s="14" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="14"/>
+      <c r="A383" s="14" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="14"/>
+      <c r="A384" s="14" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="13"/>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="14"/>
+      <c r="A386" s="14" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="14"/>
+      <c r="A387" s="14" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="14"/>
+      <c r="A388" s="14" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="14"/>
+      <c r="A389" s="14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="14"/>
+      <c r="A390" s="14" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="14"/>
+      <c r="A391" s="14" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" s="14"/>
+      <c r="A392" s="14" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="13"/>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="14"/>
+      <c r="A394" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="14"/>
+      <c r="A395" s="14" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="14"/>
+      <c r="A396" s="14" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="14"/>
+      <c r="A397" s="14" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="14"/>
+      <c r="A398" s="14" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="13"/>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="15"/>
+      <c r="A400" s="15" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="7"/>
+      <c r="A401" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="7"/>
+      <c r="A402" s="7" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="7"/>
+      <c r="A403" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="15"/>
+      <c r="A404" s="15" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="14"/>
+      <c r="A405" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="13"/>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="14"/>
+      <c r="A407" s="14" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="14"/>
+      <c r="A408" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="13"/>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="14"/>
+      <c r="A410" s="14" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="14"/>
+      <c r="A411" s="14" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="14"/>
+      <c r="A412" s="14" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="14"/>
+      <c r="A413" s="14" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="14"/>
+      <c r="A414" s="14" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="13"/>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" s="14"/>
+      <c r="A416" s="14" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" s="14"/>
+      <c r="A417" s="14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="13"/>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" s="14"/>
+      <c r="A419" s="14" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" s="13"/>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="14"/>
+      <c r="A421" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" s="14"/>
+      <c r="A422" s="14" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="14"/>
+      <c r="A423" s="14" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="14"/>
+      <c r="A424" s="14" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="14"/>
+      <c r="A425" s="14" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="14"/>
+      <c r="A426" s="14" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="14"/>
+      <c r="A427" s="14" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" s="14"/>
+      <c r="A428" s="14" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="13"/>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="14"/>
+      <c r="A430" s="14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="14"/>
+      <c r="A431" s="14" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="14"/>
+      <c r="A432" s="14" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="14"/>
+      <c r="A433" s="14" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="14"/>
+      <c r="A434" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="14"/>
+      <c r="A435" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="14"/>
+      <c r="A436" s="14" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="14"/>
+      <c r="A437" s="14" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="14"/>
+      <c r="A438" s="14" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="13"/>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" s="14"/>
+      <c r="A440" s="14" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="14"/>
+      <c r="A441" s="14" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" s="14"/>
+      <c r="A442" s="14" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" s="14"/>
+      <c r="A443" s="14" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" s="14"/>
+      <c r="A444" s="14" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="14"/>
+      <c r="A445" s="14" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" s="14"/>
+      <c r="A446" s="14" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="13"/>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="14"/>
+      <c r="A448" s="14" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="14"/>
+      <c r="A449" s="14" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="14"/>
+      <c r="A450" s="14" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" s="14"/>
+      <c r="A451" s="14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" s="14"/>
+      <c r="A452" s="14" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" s="14"/>
+      <c r="A453" s="14" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" s="14"/>
+      <c r="A454" s="14" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="13"/>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="14"/>
+      <c r="A456" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" s="14"/>
+      <c r="A457" s="14" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458" s="14"/>
+      <c r="A458" s="14" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" s="14"/>
+      <c r="A459" s="14" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" s="14"/>
+      <c r="A460" s="14" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="13"/>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" s="15"/>
+      <c r="A462" s="15" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" s="7"/>
+      <c r="A463" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464" s="7"/>
+      <c r="A464" s="7" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465" s="7"/>
+      <c r="A465" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466" s="15"/>
+      <c r="A466" s="15" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467" s="14"/>
+      <c r="A467" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="13"/>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469" s="14"/>
+      <c r="A469" s="14" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" s="14"/>
+      <c r="A470" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="13"/>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" s="14"/>
+      <c r="A472" s="14" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473" s="14"/>
+      <c r="A473" s="14" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474" s="14"/>
+      <c r="A474" s="14" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" s="14"/>
+      <c r="A475" s="14" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476" s="14"/>
+      <c r="A476" s="14" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" s="13"/>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" s="14"/>
+      <c r="A478" s="14" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479" s="14"/>
+      <c r="A479" s="14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="13"/>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481" s="14"/>
+      <c r="A481" s="14" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="13"/>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483" s="14"/>
+      <c r="A483" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484" s="14"/>
+      <c r="A484" s="14" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485" s="14"/>
+      <c r="A485" s="14" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486" s="14"/>
+      <c r="A486" s="14" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487" s="14"/>
+      <c r="A487" s="14" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488" s="14"/>
+      <c r="A488" s="14" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489" s="14"/>
+      <c r="A489" s="14" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490" s="14"/>
+      <c r="A490" s="14" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491" s="14"/>
+      <c r="A491" s="14" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="13"/>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" s="14"/>
+      <c r="A493" s="14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494" s="14"/>
+      <c r="A494" s="14" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495" s="14"/>
+      <c r="A495" s="14" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496" s="14"/>
+      <c r="A496" s="14" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" s="14"/>
+      <c r="A497" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="14"/>
+      <c r="A498" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="14"/>
+      <c r="A499" s="14" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" s="14"/>
+      <c r="A500" s="14" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" s="14"/>
+      <c r="A501" s="14" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="13"/>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" s="14"/>
+      <c r="A503" s="14" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" s="14"/>
+      <c r="A504" s="14" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="14"/>
+      <c r="A505" s="14" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" s="14"/>
+      <c r="A506" s="14" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" s="14"/>
+      <c r="A507" s="14" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508" s="14"/>
+      <c r="A508" s="14" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" s="14"/>
+      <c r="A509" s="14" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" s="14"/>
+      <c r="A510" s="14" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" s="13"/>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512" s="14"/>
+      <c r="A512" s="14" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="14"/>
+      <c r="A513" s="14" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="14"/>
+      <c r="A514" s="14" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="14"/>
+      <c r="A515" s="14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="14"/>
+      <c r="A516" s="14" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="14"/>
+      <c r="A517" s="14" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" s="14"/>
+      <c r="A518" s="14" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" s="13"/>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="14"/>
+      <c r="A520" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" s="14"/>
+      <c r="A521" s="14" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" s="14"/>
+      <c r="A522" s="14" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523" s="14"/>
+      <c r="A523" s="14" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524" s="14"/>
+      <c r="A524" s="14" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" s="16"/>
@@ -4617,7 +6299,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4633,17 +6315,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -4653,7 +6335,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -4663,12 +6345,12 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -4676,12 +6358,12 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -4689,27 +6371,27 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -4717,12 +6399,12 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -4730,7 +6412,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -4738,22 +6420,22 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
@@ -4761,47 +6443,47 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
@@ -4812,37 +6494,37 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
@@ -4855,22 +6537,22 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
@@ -4878,7 +6560,7 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
@@ -4888,7 +6570,7 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
@@ -4898,12 +6580,12 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
@@ -4911,12 +6593,12 @@
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
@@ -4924,27 +6606,27 @@
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
@@ -4952,12 +6634,12 @@
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
@@ -4965,7 +6647,7 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
@@ -4973,27 +6655,27 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
@@ -5001,47 +6683,47 @@
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
@@ -5049,22 +6731,22 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
@@ -5072,37 +6754,37 @@
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
@@ -5115,22 +6797,22 @@
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
@@ -5138,7 +6820,7 @@
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
@@ -5148,7 +6830,7 @@
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
@@ -5158,12 +6840,12 @@
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
@@ -5171,12 +6853,12 @@
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
@@ -5184,27 +6866,27 @@
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
@@ -5212,12 +6894,12 @@
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
@@ -5225,7 +6907,7 @@
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
@@ -5233,27 +6915,27 @@
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
@@ -5261,47 +6943,47 @@
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
@@ -5309,22 +6991,22 @@
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
@@ -5332,37 +7014,37 @@
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="14" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="14" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
@@ -5375,22 +7057,22 @@
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="14" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
@@ -5398,7 +7080,7 @@
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="15" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
@@ -5408,7 +7090,7 @@
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
@@ -5418,12 +7100,12 @@
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
@@ -5431,12 +7113,12 @@
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
@@ -5444,27 +7126,27 @@
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="14" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="14" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="14" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
@@ -5472,12 +7154,12 @@
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="14" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="14" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
@@ -5485,7 +7167,7 @@
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="14" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
@@ -5493,32 +7175,32 @@
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="14" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="14" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="14" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="14" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="14" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
@@ -5526,47 +7208,47 @@
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="14" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="14" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="14" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="14" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="14" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="14" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="14" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="14" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="14" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
@@ -5574,27 +7256,27 @@
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="14" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="14" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="14" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="14" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="14" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
@@ -5602,37 +7284,37 @@
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="14" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="14" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="14" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="14" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="14" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="14" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="14" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
@@ -5645,22 +7327,22 @@
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="14" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="14" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="14" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="14" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
@@ -5668,7 +7350,7 @@
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="15" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
@@ -5678,7 +7360,7 @@
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
@@ -5688,12 +7370,12 @@
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="15" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
@@ -5701,12 +7383,12 @@
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
@@ -5714,27 +7396,27 @@
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="14" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="14" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="14" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
@@ -5742,12 +7424,12 @@
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="14" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="14" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
@@ -5755,7 +7437,7 @@
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="14" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
@@ -5763,32 +7445,32 @@
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="14" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="14" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="14" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="14" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
@@ -5796,47 +7478,47 @@
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="14" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="14" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="14" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="14" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="14" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="14" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="14" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="14" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="14" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
@@ -5844,27 +7526,27 @@
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="14" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="14" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="14" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="14" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="14" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
@@ -5872,37 +7554,37 @@
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="14" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="14" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="14" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="14" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="14" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="14" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="14" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
@@ -5915,22 +7597,22 @@
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="14" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="14" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="14" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="14" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
@@ -5938,7 +7620,7 @@
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="15" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
@@ -5948,7 +7630,7 @@
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
@@ -5958,12 +7640,12 @@
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="15" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
@@ -5971,12 +7653,12 @@
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
@@ -5984,27 +7666,27 @@
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="14" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="14" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="14" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
@@ -6012,12 +7694,12 @@
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="14" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="14" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
@@ -6025,7 +7707,7 @@
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="14" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
@@ -6033,37 +7715,37 @@
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="14" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="14" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="14" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="14" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="14" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="14" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
@@ -6071,47 +7753,47 @@
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="14" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="14" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="14" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="14" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="14" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="14" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="14" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="14" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="14" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
@@ -6119,32 +7801,32 @@
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="14" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="14" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="14" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="14" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="14" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="14" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
@@ -6152,37 +7834,37 @@
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="14" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="14" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="14" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="14" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="14" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="14" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="14" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
@@ -6195,22 +7877,22 @@
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="14" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="14" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="14" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="14" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
@@ -6218,7 +7900,7 @@
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="15" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
@@ -6228,7 +7910,7 @@
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
@@ -6238,12 +7920,12 @@
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="15" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
@@ -6251,12 +7933,12 @@
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
@@ -6264,27 +7946,27 @@
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="14" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="14" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="14" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
@@ -6292,12 +7974,12 @@
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="14" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="14" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
@@ -6305,7 +7987,7 @@
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="14" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
@@ -6313,37 +7995,37 @@
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="14" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="14" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="14" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="14" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="14" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="14" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
@@ -6351,47 +8033,47 @@
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="14" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="14" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="14" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="14" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="14" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="14" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="14" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="14" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="14" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
@@ -6399,32 +8081,32 @@
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="14" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="14" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="14" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="14" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="14" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="14" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
@@ -6432,37 +8114,37 @@
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="14" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="14" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="14" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="14" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="14" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="14" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="14" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
@@ -6475,22 +8157,22 @@
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="14" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="14" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="14" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
@@ -6498,7 +8180,7 @@
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="15" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
@@ -6508,7 +8190,7 @@
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
@@ -6518,12 +8200,12 @@
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="15" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
@@ -6531,12 +8213,12 @@
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
@@ -6544,27 +8226,27 @@
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="14" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="14" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="14" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
@@ -6572,12 +8254,12 @@
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="14" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="14" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
@@ -6585,7 +8267,7 @@
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="14" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
@@ -6593,42 +8275,42 @@
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="14" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="14" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="14" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="14" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="14" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="14" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="14" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
@@ -6636,47 +8318,47 @@
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="14" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="14" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="14" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="14" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="14" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="14" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="14" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="14" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="14" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
@@ -6684,37 +8366,37 @@
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="14" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="14" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="14" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="14" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="14" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="14" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="14" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
@@ -6722,37 +8404,37 @@
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="14" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="14" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="14" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="14" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="14" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="14" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" s="14" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
@@ -6765,22 +8447,22 @@
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="14" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="14" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="14" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="14" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
@@ -6788,7 +8470,7 @@
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="15" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
@@ -6798,7 +8480,7 @@
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
@@ -6808,12 +8490,12 @@
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="15" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
@@ -6821,12 +8503,12 @@
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
@@ -6834,27 +8516,27 @@
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="14" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="14" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" s="14" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
@@ -6862,12 +8544,12 @@
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="14" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="14" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
@@ -6875,7 +8557,7 @@
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="14" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
@@ -6883,47 +8565,47 @@
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="14" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="14" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="14" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="14" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="14" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="14" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="14" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" s="14" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
@@ -6931,47 +8613,47 @@
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="14" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="14" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" s="14" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" s="14" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="14" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="14" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="14" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="14" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" s="14" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
@@ -6979,42 +8661,42 @@
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="14" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="14" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="14" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="14" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="14" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="14" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" s="14" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" s="14" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
@@ -7022,37 +8704,37 @@
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" s="14" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" s="14" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" s="14" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="14" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" s="14" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" s="14" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" s="14" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
@@ -7065,22 +8747,22 @@
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="14" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="14" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" s="14" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" s="14" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">

--- a/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/4_wy2016-2018/4_pTHg Model Results.xlsx
+++ b/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/4_wy2016-2018/4_pTHg Model Results.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slrose\R\2018_CCSB_LoadsData_WY2010-2017\Model Stats_rloadest\4_wy2016-2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C851288-2E05-42CA-8C9B-46015AB00482}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2105A1DF-2931-4177-B1E0-E506E8B80385}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="105" windowWidth="16440" windowHeight="28440" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pTHg wy2016-18 Model Results" sheetId="2" r:id="rId1"/>
-    <sheet name="Outlet" sheetId="5" r:id="rId2"/>
+    <sheet name="Outlet_30ct" sheetId="9" r:id="rId2"/>
     <sheet name="Rumsey" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="473">
   <si>
     <t>Model #</t>
   </si>
@@ -909,63 +909,9 @@
     <t>Station: CCSB-Yolo</t>
   </si>
   <si>
-    <t xml:space="preserve">           Number of Observations: 31</t>
-  </si>
-  <si>
-    <t>Number of Uncensored Observations: 31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Center of Decimal Time: 2016.949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  Center of ln(Q): 5.555</t>
-  </si>
-  <si>
     <t xml:space="preserve">                 Period of record: 2016-01-20 to 2018-04-08</t>
   </si>
   <si>
-    <t>(Intercept)   -4.045     0.2403  -16.83       0</t>
-  </si>
-  <si>
-    <t>lnQ            1.372     0.1014   13.52       0</t>
-  </si>
-  <si>
-    <t>Residual variance: 1.382</t>
-  </si>
-  <si>
-    <t>R-squared: 86.31 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 61.65 on 1 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.4597</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.5325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Min  25% 50% 75%  90%   95%   Max</t>
-  </si>
-  <si>
-    <t>Est   0 0.03 0.1 1.3 5.93  7.35  7.55</t>
-  </si>
-  <si>
-    <t>Obs   0 0.01 0.1 0.6 7.52 14.40 14.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: -25.89 percent</t>
-  </si>
-  <si>
-    <t>PLR: 0.7411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.7476</t>
-  </si>
-  <si>
     <t>&gt; pTHg_Outflowm2 &lt;- loadReg(pTHg ~model(2), data = pTHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
   </si>
   <si>
@@ -975,51 +921,6 @@
     <t>&gt; pTHg_Outflowm2</t>
   </si>
   <si>
-    <t>(Intercept)  -4.5515    0.22908 -19.868   0e+00</t>
-  </si>
-  <si>
-    <t>lnQ           1.3717    0.08154  16.823   0e+00</t>
-  </si>
-  <si>
-    <t>lnQ2          0.0902    0.02195   4.109   1e-04</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.8932</t>
-  </si>
-  <si>
-    <t>R-squared: 91.46 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 76.28 on 2 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.15</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.6346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Min  25%  50%  75%   90%  95%  Max</t>
-  </si>
-  <si>
-    <t>Est   0 0.02 0.05 1.19 10.40 14.3 14.9</t>
-  </si>
-  <si>
-    <t>Obs   0 0.01 0.10 0.60  7.52 14.4 14.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: 19.8 percent</t>
-  </si>
-  <si>
-    <t>PLR: 1.198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.9033</t>
-  </si>
-  <si>
     <t>&gt; pTHg_Outflowm3 &lt;- loadReg(pTHg ~model(3), data = pTHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
   </si>
   <si>
@@ -1029,60 +930,9 @@
     <t>&gt; pTHg_Outflowm3</t>
   </si>
   <si>
-    <t>(Intercept)  -4.1162     0.2588 -15.9023  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ           1.3713     0.1022  13.4232  0.0000</t>
-  </si>
-  <si>
-    <t>DECTIME      -0.2669     0.3458  -0.7718  0.4192</t>
-  </si>
-  <si>
-    <t>Residual variance: 1.402</t>
-  </si>
-  <si>
-    <t>R-squared: 86.6 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 62.3 on 2 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.3217</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.5194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        VIF</t>
-  </si>
-  <si>
-    <t>lnQ       1</t>
-  </si>
-  <si>
-    <t>DECTIME   1</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Min  25%  50%  75%  90%   95%   Max</t>
   </si>
   <si>
-    <t>Est   0 0.03 0.11 1.24 5.27  6.47  6.88</t>
-  </si>
-  <si>
-    <t>Obs   0 0.01 0.10 0.60 7.52 14.40 14.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: -30.96 percent</t>
-  </si>
-  <si>
-    <t>PLR: 0.6904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.6916</t>
-  </si>
-  <si>
     <t>&gt; pTHg_Outflowm4 &lt;- loadReg(pTHg ~model(4), data = pTHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
   </si>
   <si>
@@ -1092,63 +942,9 @@
     <t>&gt; pTHg_Outflowm4</t>
   </si>
   <si>
-    <t>(Intercept)  -5.2255     1.0422 -5.0140  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ           1.3529     0.1084 12.4799  0.0000</t>
-  </si>
-  <si>
-    <t>sin.DECTIME   0.3981     0.9728  0.4092  0.6615</t>
-  </si>
-  <si>
-    <t>cos.DECTIME   1.7285     0.9399  1.8391  0.0558</t>
-  </si>
-  <si>
-    <t>Residual variance: 1.137</t>
-  </si>
-  <si>
-    <t>R-squared: 89.52 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 69.92 on 3 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.5092</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.3888</t>
-  </si>
-  <si>
-    <t>lnQ         1.389</t>
-  </si>
-  <si>
-    <t>sin.DECTIME 4.070</t>
-  </si>
-  <si>
-    <t>cos.DECTIME 3.646</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Min  25%  50%  75%  90%   95%  Max</t>
   </si>
   <si>
-    <t>Est   0 0.02 0.12 1.11 7.34  9.22 10.8</t>
-  </si>
-  <si>
-    <t>Obs   0 0.01 0.10 0.60 7.52 14.40 14.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: -12.68 percent</t>
-  </si>
-  <si>
-    <t>PLR: 0.8732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.889</t>
-  </si>
-  <si>
     <t>&gt; pTHg_Outflowm5 &lt;- loadReg(pTHg ~model(5), data = pTHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
   </si>
   <si>
@@ -1158,60 +954,6 @@
     <t>&gt; pTHg_Outflowm5</t>
   </si>
   <si>
-    <t>(Intercept) -4.73970    0.23871 -19.856   0.000</t>
-  </si>
-  <si>
-    <t>lnQ          1.37085    0.07773  17.637   0.000</t>
-  </si>
-  <si>
-    <t>lnQ2         0.09888    0.02139   4.622   0.000</t>
-  </si>
-  <si>
-    <t>DECTIME     -0.52517    0.26894  -1.953   0.043</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.8116</t>
-  </si>
-  <si>
-    <t>R-squared: 92.52 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 80.37 on 3 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.6199</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.5498</t>
-  </si>
-  <si>
-    <t>lnQ     1.000</t>
-  </si>
-  <si>
-    <t>lnQ2    1.045</t>
-  </si>
-  <si>
-    <t>DECTIME 1.045</t>
-  </si>
-  <si>
-    <t>Est   0 0.01 0.06 1.09 8.58 11.8 13.1</t>
-  </si>
-  <si>
-    <t>Obs   0 0.01 0.10 0.60 7.52 14.4 14.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: 4.851 percent</t>
-  </si>
-  <si>
-    <t>PLR: 1.049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.9365</t>
-  </si>
-  <si>
     <t>&gt; pTHg_Outflowm6 &lt;- loadReg(pTHg ~model(6), data = pTHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
   </si>
   <si>
@@ -1221,63 +963,6 @@
     <t>&gt; pTHg_Outflowm6</t>
   </si>
   <si>
-    <t>(Intercept) -5.93257    0.89512  -6.628  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ          1.31800    0.09129  14.437  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ2         0.07971    0.02253   3.538  0.0005</t>
-  </si>
-  <si>
-    <t>sin.DECTIME  0.95888    0.82976   1.156  0.2127</t>
-  </si>
-  <si>
-    <t>cos.DECTIME  1.63914    0.78728   2.082  0.0288</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.7969</t>
-  </si>
-  <si>
-    <t>R-squared: 92.93 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 82.11 on 4 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.3761</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.4792</t>
-  </si>
-  <si>
-    <t>lnQ         1.405</t>
-  </si>
-  <si>
-    <t>lnQ2        1.181</t>
-  </si>
-  <si>
-    <t>sin.DECTIME 4.224</t>
-  </si>
-  <si>
-    <t>cos.DECTIME 3.649</t>
-  </si>
-  <si>
-    <t>Est   0 0.01 0.06 1.06 11.30 14.0 14.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: 19.4 percent</t>
-  </si>
-  <si>
-    <t>PLR: 1.194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.8701</t>
-  </si>
-  <si>
     <t>&gt; pTHg_Outflowm7 &lt;- loadReg(pTHg ~model(7), data = pTHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
   </si>
   <si>
@@ -1287,57 +972,6 @@
     <t>&gt; pTHg_Outflowm7</t>
   </si>
   <si>
-    <t>(Intercept)  -5.1888     1.1662 -4.44930  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ           1.3551     0.1142 11.87011  0.0000</t>
-  </si>
-  <si>
-    <t>DECTIME      -0.0277     0.3646 -0.07598  0.9339</t>
-  </si>
-  <si>
-    <t>sin.DECTIME   0.3597     1.1129  0.32318  0.7244</t>
-  </si>
-  <si>
-    <t>cos.DECTIME   1.6875     1.0992  1.53521  0.1010</t>
-  </si>
-  <si>
-    <t>Residual variance: 1.18</t>
-  </si>
-  <si>
-    <t>G-squared: 69.93 on 4 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.5072</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.3904</t>
-  </si>
-  <si>
-    <t>lnQ         1.483</t>
-  </si>
-  <si>
-    <t>DECTIME     1.321</t>
-  </si>
-  <si>
-    <t>sin.DECTIME 5.130</t>
-  </si>
-  <si>
-    <t>cos.DECTIME 4.803</t>
-  </si>
-  <si>
-    <t>Est   0 0.02 0.12 1.13 7.21  9.34 10.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: -12.84 percent</t>
-  </si>
-  <si>
-    <t>PLR: 0.8716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.8923</t>
-  </si>
-  <si>
     <t>&gt; pTHg_Outflowm8 &lt;- loadReg(pTHg ~model(8), data = pTHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
   </si>
   <si>
@@ -1347,69 +981,9 @@
     <t>&gt; pTHg_Outflowm8</t>
   </si>
   <si>
-    <t>(Intercept) -5.56807    0.96295 -5.7823  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ          1.34035    0.09381 14.2885  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ2         0.08572    0.02326  3.6845  0.0002</t>
-  </si>
-  <si>
-    <t>DECTIME     -0.31598    0.30938 -1.0213  0.2603</t>
-  </si>
-  <si>
-    <t>sin.DECTIME  0.56273    0.91533  0.6148  0.4952</t>
-  </si>
-  <si>
-    <t>cos.DECTIME  1.16484    0.91348  1.2752  0.1622</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.7956</t>
-  </si>
-  <si>
-    <t>R-squared: 93.21 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 83.38 on 5 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.3056</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.4985</t>
-  </si>
-  <si>
-    <t>lnQ         1.486</t>
-  </si>
-  <si>
     <t>lnQ2        1.261</t>
   </si>
   <si>
-    <t>DECTIME     1.411</t>
-  </si>
-  <si>
-    <t>sin.DECTIME 5.149</t>
-  </si>
-  <si>
-    <t>cos.DECTIME 4.922</t>
-  </si>
-  <si>
-    <t>Est   0 0.01 0.06 1.12 9.86 12.3 14.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: 11.44 percent</t>
-  </si>
-  <si>
-    <t>PLR: 1.114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.928</t>
-  </si>
-  <si>
     <t>&gt; pTHg_Outflowm9 &lt;- loadReg(pTHg ~model(9), data = pTHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
   </si>
   <si>
@@ -1419,94 +993,502 @@
     <t>&gt; pTHg_Outflowm9</t>
   </si>
   <si>
-    <t>(Intercept) -5.28902     0.9985 -5.2971  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ          1.41488     0.1181 11.9837  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ2         0.09872     0.0264  3.7396  0.0002</t>
-  </si>
-  <si>
-    <t>DECTIME     -0.44032     0.3314 -1.3287  0.1380</t>
-  </si>
-  <si>
-    <t>DECTIME2     0.57809     0.5576  1.0368  0.2438</t>
-  </si>
-  <si>
-    <t>sin.DECTIME -0.16039     1.1497 -0.1395  0.8740</t>
-  </si>
-  <si>
-    <t>cos.DECTIME  0.65725     1.0352  0.6349  0.4724</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.7932</t>
-  </si>
-  <si>
-    <t>R-squared: 93.5 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 84.73 on 6 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.1156</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.5476</t>
-  </si>
-  <si>
-    <t>lnQ2        1.629</t>
-  </si>
-  <si>
-    <t>DECTIME     1.624</t>
-  </si>
-  <si>
-    <t>DECTIME2    2.364</t>
-  </si>
-  <si>
-    <t>sin.DECTIME 8.147</t>
-  </si>
-  <si>
-    <t>cos.DECTIME 6.339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Min  25%  50% 75%  90%  95%  Max</t>
-  </si>
-  <si>
-    <t>Est   0 0.01 0.07 1.2 8.78 12.8 16.2</t>
-  </si>
-  <si>
-    <t>Obs   0 0.01 0.10 0.6 7.52 14.4 14.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: 12.29 percent</t>
-  </si>
-  <si>
-    <t>PLR: 1.123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.9652</t>
-  </si>
-  <si>
-    <t>Number of Uncensored Observations: 31; Period of record: 2016-01-20 to 2018-04-08</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
-    <t>27.68, 31.14, 65.10</t>
-  </si>
-  <si>
-    <t>27.61, 25.91, 24.09</t>
-  </si>
-  <si>
     <t>y</t>
   </si>
   <si>
-    <t>n</t>
+    <t>Number of Uncensored Observations: 30; Period of record: 2016-01-20 to 2018-04-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Number of Observations: 30</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Center of Decimal Time: 2016.955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  Center of ln(Q): 6.989</t>
+  </si>
+  <si>
+    <t>(Intercept)   -2.160     0.1715  -12.60       0</t>
+  </si>
+  <si>
+    <t>lnQ            1.647     0.1044   15.78       0</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.8813</t>
+  </si>
+  <si>
+    <t>R-squared: 89.89 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 68.74 on 1 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.6088</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.5516</t>
+  </si>
+  <si>
+    <t>Est   0 0.02 0.07 1.33 8.81 10.8 11.1</t>
+  </si>
+  <si>
+    <t>Obs   0 0.02 0.12 0.60 8.98 14.4 14.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -1.864 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.9027</t>
+  </si>
+  <si>
+    <t>(Intercept) -2.25988     0.2569 -8.7966  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.64725     0.1058 15.5714  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.03683     0.0701  0.5254  0.5807</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.9047</t>
+  </si>
+  <si>
+    <t>R-squared: 89.99 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 69.05 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.4247</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.5994</t>
+  </si>
+  <si>
+    <t>Est   0 0.02 0.06 1.28 9.74 12.1 12.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 6.402 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.9203</t>
+  </si>
+  <si>
+    <t>(Intercept)  -2.2696     0.1847 -12.287  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.6562     0.1027  16.130  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.3884     0.2705  -1.436  0.1374</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.8491</t>
+  </si>
+  <si>
+    <t>R-squared: 90.61 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 70.95 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.9609</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.492</t>
+  </si>
+  <si>
+    <t>lnQ     1.004</t>
+  </si>
+  <si>
+    <t>DECTIME 1.004</t>
+  </si>
+  <si>
+    <t>Est   0 0.01 0.08 1.22 7.59  9.01  9.75</t>
+  </si>
+  <si>
+    <t>Obs   0 0.02 0.12 0.60 8.98 14.40 14.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -12.47 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.8753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8574</t>
+  </si>
+  <si>
+    <t>(Intercept)  -3.5667     0.9032  -3.949  0.0002</t>
+  </si>
+  <si>
+    <t>lnQ           1.5750     0.1043  15.107  0.0000</t>
+  </si>
+  <si>
+    <t>sin.DECTIME   0.7822     0.7918   0.988  0.2930</t>
+  </si>
+  <si>
+    <t>cos.DECTIME   1.6594     0.7592   2.186  0.0245</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.7415</t>
+  </si>
+  <si>
+    <t>R-squared: 92.1 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 76.15 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.3121</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.4095</t>
+  </si>
+  <si>
+    <t>lnQ         1.185</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 3.475</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 3.508</t>
+  </si>
+  <si>
+    <t>Est   0 0.01 0.07 1.24 9.79 10.8 12.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 3.587 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.9106</t>
+  </si>
+  <si>
+    <t>(Intercept) -2.52123    0.28932  -8.714  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.65884    0.10220  16.232  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.08136    0.07223   1.126  0.2319</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.50267    0.28766  -1.747  0.0680</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.8408</t>
+  </si>
+  <si>
+    <t>R-squared: 91.04 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 72.38 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.7201</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.5704</t>
+  </si>
+  <si>
+    <t>lnQ2    1.142</t>
+  </si>
+  <si>
+    <t>DECTIME 1.146</t>
+  </si>
+  <si>
+    <t>Est   0 0.01 0.07 1.12 9.18 11.3 12.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 1.849 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.9287</t>
+  </si>
+  <si>
+    <t>(Intercept)  -3.4975     0.9717 -3.5992  0.0004</t>
+  </si>
+  <si>
+    <t>lnQ           1.5758     0.1063 14.8269  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         -0.0161     0.0726 -0.2217  0.8082</t>
+  </si>
+  <si>
+    <t>sin.DECTIME   0.7380     0.8309  0.8883  0.3343</t>
+  </si>
+  <si>
+    <t>cos.DECTIME   1.6650     0.7739  2.1514  0.0240</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.7697</t>
+  </si>
+  <si>
+    <t>R-squared: 92.12 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 76.21 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.3391</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3857</t>
+  </si>
+  <si>
+    <t>lnQ         1.186</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 3.687</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 3.512</t>
+  </si>
+  <si>
+    <t>Est   0 0.01 0.07 1.29 9.47  9.91 11.8</t>
+  </si>
+  <si>
+    <t>Obs   0 0.02 0.12 0.60 8.98 14.40 14.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -0.08486 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.9098</t>
+  </si>
+  <si>
+    <t>(Intercept)  -3.3354     1.0043 -3.3211  0.0009</t>
+  </si>
+  <si>
+    <t>lnQ           1.5919     0.1099 14.4858  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.1652     0.2950 -0.5599  0.5409</t>
+  </si>
+  <si>
+    <t>sin.DECTIME   0.5597     0.8954  0.6251  0.4952</t>
+  </si>
+  <si>
+    <t>cos.DECTIME   1.4138     0.8857  1.5963  0.0879</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.7616</t>
+  </si>
+  <si>
+    <t>R-squared: 92.2 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 76.52 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.5282</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.4184</t>
+  </si>
+  <si>
+    <t>lnQ         1.282</t>
+  </si>
+  <si>
+    <t>DECTIME     1.331</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 4.327</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 4.648</t>
+  </si>
+  <si>
+    <t>Est   0 0.01 0.07 1.12 9.30 10.0 12.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -0.7425 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.9224</t>
+  </si>
+  <si>
+    <t>(Intercept)  -3.3407    1.03428 -3.23002  0.0010</t>
+  </si>
+  <si>
+    <t>lnQ           1.5924    0.11278 14.11993  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2          0.0032    0.08303  0.03854  0.9656</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.1712    0.33914 -0.50472  0.5736</t>
+  </si>
+  <si>
+    <t>sin.DECTIME   0.5604    0.91403  0.61313  0.4947</t>
+  </si>
+  <si>
+    <t>cos.DECTIME   1.4038    0.94093  1.49189  0.1029</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.7933</t>
+  </si>
+  <si>
+    <t>G-squared: 76.52 on 5 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.5212</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.4233</t>
+  </si>
+  <si>
+    <t>lnQ         1.296</t>
+  </si>
+  <si>
+    <t>lnQ2        1.600</t>
+  </si>
+  <si>
+    <t>DECTIME     1.689</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 4.329</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 5.036</t>
+  </si>
+  <si>
+    <t>Est   0 0.01 0.07 1.09 9.32 10.1 12.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -0.295 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.9234</t>
+  </si>
+  <si>
+    <t>(Intercept) -2.89939    1.10590 -2.6217  0.0051</t>
+  </si>
+  <si>
+    <t>lnQ          1.71059    0.15571 10.9858  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.01243    0.08312  0.1496  0.8644</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.28761    0.35405 -0.8123  0.3569</t>
+  </si>
+  <si>
+    <t>DECTIME2     0.60933    0.55601  1.0959  0.2166</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -0.20189    1.14559 -0.1762  0.8405</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  0.88171    1.05116  0.8388  0.3417</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.7867</t>
+  </si>
+  <si>
+    <t>R-squared: 92.59 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 78.05 on 6 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.2189</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.4723</t>
+  </si>
+  <si>
+    <t>lnQ         2.491</t>
+  </si>
+  <si>
+    <t>lnQ2        1.616</t>
+  </si>
+  <si>
+    <t>DECTIME     1.856</t>
+  </si>
+  <si>
+    <t>DECTIME2    2.288</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 6.857</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 6.337</t>
+  </si>
+  <si>
+    <t>Est   0 0.01 0.08 1.25 8.17 11.6 13.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -0.1455 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.9628</t>
+  </si>
+  <si>
+    <t>x- one non-sig</t>
+  </si>
+  <si>
+    <t>23.0, 30.2, 28.9</t>
+  </si>
+  <si>
+    <t>26.7, 32.0, 61.4</t>
   </si>
 </sst>
 </file>
@@ -1752,7 +1734,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1837,9 +1819,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1882,6 +1861,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1906,14 +1891,84 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2380,7 +2435,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O33" sqref="O33"/>
+      <selection pane="bottomLeft" activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2399,27 +2454,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="49"/>
+      <c r="M1" s="50"/>
       <c r="O1" s="21"/>
       <c r="R1" s="21"/>
     </row>
@@ -2508,8 +2563,8 @@
       <c r="O3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="35"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="34"/>
       <c r="R3" s="27"/>
       <c r="S3" s="27"/>
     </row>
@@ -2547,49 +2602,55 @@
       <c r="O4" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="36"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="35"/>
     </row>
     <row r="5" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Q5" s="37"/>
+      <c r="Q5" s="36"/>
       <c r="S5" s="8"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B6" s="54" t="s">
+      <c r="A6" s="48"/>
+      <c r="B6" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="57"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="R6" s="1"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="R6" s="48"/>
       <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B7" s="51" t="s">
-        <v>473</v>
-      </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="50" t="s">
+      <c r="A7" s="48"/>
+      <c r="B7" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="50"/>
-      <c r="R7" s="1"/>
+      <c r="M7" s="51"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="R7" s="48"/>
       <c r="S7" s="9"/>
     </row>
     <row r="8" spans="1:31" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -2633,7 +2694,7 @@
         <v>4</v>
       </c>
       <c r="N8" s="20" t="s">
-        <v>474</v>
+        <v>307</v>
       </c>
       <c r="O8" s="20" t="s">
         <v>12</v>
@@ -2641,7 +2702,7 @@
       <c r="P8" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="Q8" s="38" t="s">
+      <c r="Q8" s="37" t="s">
         <v>41</v>
       </c>
       <c r="R8" s="3" t="s">
@@ -2649,51 +2710,57 @@
       </c>
     </row>
     <row r="9" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="11">
         <v>1</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="11">
         <v>0</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="6">
-        <v>86.31</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0.4597</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0.53249999999999997</v>
-      </c>
-      <c r="L9" s="6">
-        <v>-25.89</v>
-      </c>
-      <c r="M9" s="6">
-        <v>0.74760000000000004</v>
-      </c>
-      <c r="N9" s="6">
+      <c r="I9" s="11">
+        <v>89.89</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0.60880000000000001</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0.55159999999999998</v>
+      </c>
+      <c r="L9" s="11">
+        <v>-1.8640000000000001</v>
+      </c>
+      <c r="M9" s="11">
+        <v>0.90269999999999995</v>
+      </c>
+      <c r="N9" s="44">
         <v>1</v>
       </c>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
+      <c r="O9" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="P9" s="44" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q9" s="44" t="s">
+        <v>308</v>
+      </c>
       <c r="R9" s="8" t="s">
         <v>10</v>
       </c>
@@ -2706,14 +2773,14 @@
       <c r="AE9" s="9"/>
     </row>
     <row r="10" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="39">
+      <c r="A10" s="48">
         <v>2</v>
       </c>
       <c r="B10" s="6">
         <v>0</v>
       </c>
-      <c r="C10" s="57">
-        <v>1E-4</v>
+      <c r="C10" s="49">
+        <v>0.58069999999999999</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>9</v>
@@ -2731,37 +2798,31 @@
         <v>7</v>
       </c>
       <c r="I10" s="6">
-        <v>91.46</v>
+        <v>89.99</v>
       </c>
       <c r="J10" s="6">
-        <v>0.15</v>
+        <v>0.42470000000000002</v>
       </c>
       <c r="K10" s="6">
-        <v>0.63460000000000005</v>
+        <v>0.59940000000000004</v>
       </c>
       <c r="L10" s="6">
-        <v>19.8</v>
+        <v>6.4020000000000001</v>
       </c>
       <c r="M10" s="6">
-        <v>0.90329999999999999</v>
+        <v>0.92030000000000001</v>
       </c>
       <c r="N10" s="6">
         <v>2</v>
       </c>
-      <c r="O10" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="P10" s="31" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q10" s="31" t="s">
-        <v>477</v>
-      </c>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
       <c r="R10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="AB10" s="9" t="s">
         <v>11</v>
@@ -2772,14 +2833,14 @@
       <c r="A11" s="31">
         <v>3</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="6">
         <v>0</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="32">
-        <v>0.41920000000000002</v>
+      <c r="D11" s="58">
+        <v>0.13739999999999999</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>9</v>
@@ -2790,35 +2851,39 @@
       <c r="G11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I11" s="31">
-        <v>86.6</v>
+        <v>90.61</v>
       </c>
       <c r="J11" s="31">
-        <v>0.32169999999999999</v>
+        <v>0.96089999999999998</v>
       </c>
       <c r="K11" s="31">
-        <v>0.51939999999999997</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="L11" s="31">
-        <v>-30.96</v>
+        <v>-12.47</v>
       </c>
       <c r="M11" s="31">
-        <v>0.69159999999999999</v>
+        <v>0.85740000000000005</v>
       </c>
       <c r="N11" s="31">
         <v>3</v>
       </c>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>470</v>
+      </c>
+      <c r="P11" s="31" t="s">
+        <v>472</v>
+      </c>
       <c r="Q11" s="31"/>
       <c r="R11" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="AB11" s="9" t="s">
         <v>11</v>
@@ -2826,7 +2891,7 @@
       <c r="AE11" s="9"/>
     </row>
     <row r="12" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="39">
+      <c r="A12" s="48">
         <v>4</v>
       </c>
       <c r="B12" s="6">
@@ -2842,39 +2907,39 @@
         <v>9</v>
       </c>
       <c r="F12" s="6">
-        <v>0.66149999999999998</v>
-      </c>
-      <c r="G12" s="44">
-        <v>5.5800000000000002E-2</v>
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="G12" s="48">
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="44">
-        <v>89.52</v>
-      </c>
-      <c r="J12" s="44">
-        <v>0.50919999999999999</v>
-      </c>
-      <c r="K12" s="44">
-        <v>0.38879999999999998</v>
-      </c>
-      <c r="L12" s="44">
-        <v>-12.68</v>
-      </c>
-      <c r="M12" s="44">
-        <v>0.88900000000000001</v>
+      <c r="I12" s="48">
+        <v>92.1</v>
+      </c>
+      <c r="J12" s="48">
+        <v>0.31209999999999999</v>
+      </c>
+      <c r="K12" s="48">
+        <v>0.40949999999999998</v>
+      </c>
+      <c r="L12" s="48">
+        <v>3.5870000000000002</v>
+      </c>
+      <c r="M12" s="48">
+        <v>0.91059999999999997</v>
       </c>
       <c r="N12" s="31">
         <v>4</v>
       </c>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
       <c r="R12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>338</v>
+        <v>288</v>
       </c>
       <c r="AB12" s="9" t="s">
         <v>11</v>
@@ -2882,62 +2947,56 @@
       <c r="AE12" s="9"/>
     </row>
     <row r="13" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
+      <c r="A13" s="6">
         <v>5</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="6">
         <v>0</v>
       </c>
-      <c r="C13" s="11">
-        <v>0</v>
-      </c>
-      <c r="D13" s="11">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="E13" s="47" t="s">
+      <c r="C13" s="6">
+        <v>0.2319</v>
+      </c>
+      <c r="D13" s="6">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="11">
-        <v>92.52</v>
-      </c>
-      <c r="J13" s="11">
-        <v>0.61990000000000001</v>
-      </c>
-      <c r="K13" s="11">
-        <v>0.54979999999999996</v>
-      </c>
-      <c r="L13" s="11">
-        <v>4.851</v>
+      <c r="I13" s="6">
+        <v>91.04</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0.72009999999999996</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0.57040000000000002</v>
+      </c>
+      <c r="L13" s="6">
+        <v>1.849</v>
       </c>
       <c r="M13" s="11">
-        <v>0.9365</v>
-      </c>
-      <c r="N13" s="45">
+        <v>0.92869999999999997</v>
+      </c>
+      <c r="N13" s="31">
         <v>5</v>
       </c>
-      <c r="O13" s="45" t="s">
-        <v>272</v>
-      </c>
-      <c r="P13" s="45" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q13" s="45" t="s">
-        <v>478</v>
-      </c>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
       <c r="R13" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>360</v>
+        <v>292</v>
       </c>
       <c r="AB13" s="9" t="s">
         <v>11</v>
@@ -2945,14 +3004,14 @@
       <c r="AE13" s="9"/>
     </row>
     <row r="14" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="39">
+      <c r="A14" s="48">
         <v>6</v>
       </c>
       <c r="B14" s="6">
         <v>0</v>
       </c>
-      <c r="C14" s="44">
-        <v>5.0000000000000001E-4</v>
+      <c r="C14" s="48">
+        <v>0.80820000000000003</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>9</v>
@@ -2961,39 +3020,39 @@
         <v>9</v>
       </c>
       <c r="F14" s="6">
-        <v>0.2127</v>
-      </c>
-      <c r="G14" s="44">
-        <v>2.8799999999999999E-2</v>
+        <v>0.33429999999999999</v>
+      </c>
+      <c r="G14" s="48">
+        <v>2.4E-2</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="44">
-        <v>92.93</v>
-      </c>
-      <c r="J14" s="44">
-        <v>0.37609999999999999</v>
-      </c>
-      <c r="K14" s="44">
-        <v>0.47920000000000001</v>
-      </c>
-      <c r="L14" s="44">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="M14" s="44">
-        <v>0.87009999999999998</v>
+      <c r="I14" s="48">
+        <v>92.12</v>
+      </c>
+      <c r="J14" s="48">
+        <v>0.33910000000000001</v>
+      </c>
+      <c r="K14" s="48">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="L14" s="48">
+        <v>-8.4860000000000005E-2</v>
+      </c>
+      <c r="M14" s="48">
+        <v>0.90980000000000005</v>
       </c>
       <c r="N14" s="31">
         <v>6</v>
       </c>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
       <c r="R14" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T14" s="8" t="s">
-        <v>381</v>
+        <v>295</v>
       </c>
       <c r="AB14" s="9" t="s">
         <v>11</v>
@@ -3001,7 +3060,7 @@
       <c r="AE14" s="9"/>
     </row>
     <row r="15" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="39">
+      <c r="A15" s="48">
         <v>7</v>
       </c>
       <c r="B15" s="6">
@@ -3011,45 +3070,45 @@
         <v>9</v>
       </c>
       <c r="D15" s="6">
-        <v>0.93389999999999995</v>
+        <v>0.54090000000000005</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="6">
-        <v>0.72440000000000004</v>
-      </c>
-      <c r="G15" s="44">
-        <v>0.10100000000000001</v>
+        <v>0.49519999999999997</v>
+      </c>
+      <c r="G15" s="48">
+        <v>8.7900000000000006E-2</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="44">
-        <v>89.52</v>
-      </c>
-      <c r="J15" s="44">
-        <v>0.50719999999999998</v>
-      </c>
-      <c r="K15" s="44">
-        <v>0.39040000000000002</v>
-      </c>
-      <c r="L15" s="44">
-        <v>-12.84</v>
-      </c>
-      <c r="M15" s="44">
-        <v>0.89229999999999998</v>
+      <c r="I15" s="48">
+        <v>92.2</v>
+      </c>
+      <c r="J15" s="48">
+        <v>0.5282</v>
+      </c>
+      <c r="K15" s="48">
+        <v>0.41839999999999999</v>
+      </c>
+      <c r="L15" s="48">
+        <v>-0.74250000000000005</v>
+      </c>
+      <c r="M15" s="48">
+        <v>0.9224</v>
       </c>
       <c r="N15" s="31">
         <v>7</v>
       </c>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
       <c r="R15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T15" s="8" t="s">
-        <v>403</v>
+        <v>298</v>
       </c>
       <c r="AB15" s="9" t="s">
         <v>11</v>
@@ -3057,55 +3116,55 @@
       <c r="AE15" s="9"/>
     </row>
     <row r="16" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="39">
+      <c r="A16" s="48">
         <v>8</v>
       </c>
       <c r="B16" s="6">
         <v>0</v>
       </c>
-      <c r="C16" s="44">
-        <v>2.0000000000000001E-4</v>
+      <c r="C16" s="48">
+        <v>0.96560000000000001</v>
       </c>
       <c r="D16" s="6">
-        <v>0.26029999999999998</v>
+        <v>0.5736</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="6">
-        <v>0.49519999999999997</v>
+        <v>0.49469999999999997</v>
       </c>
       <c r="G16" s="6">
-        <v>0.16220000000000001</v>
+        <v>0.10290000000000001</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="44">
-        <v>93.21</v>
-      </c>
-      <c r="J16" s="44">
-        <v>0.30559999999999998</v>
-      </c>
-      <c r="K16" s="44">
-        <v>0.4985</v>
-      </c>
-      <c r="L16" s="44">
-        <v>11.44</v>
-      </c>
-      <c r="M16" s="44">
-        <v>0.92800000000000005</v>
+      <c r="I16" s="48">
+        <v>92.2</v>
+      </c>
+      <c r="J16" s="48">
+        <v>0.5212</v>
+      </c>
+      <c r="K16" s="48">
+        <v>0.42330000000000001</v>
+      </c>
+      <c r="L16" s="48">
+        <v>-0.29499999999999998</v>
+      </c>
+      <c r="M16" s="48">
+        <v>0.9234</v>
       </c>
       <c r="N16" s="31">
         <v>8</v>
       </c>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
       <c r="R16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>423</v>
+        <v>301</v>
       </c>
       <c r="AB16" s="9" t="s">
         <v>11</v>
@@ -3113,95 +3172,112 @@
       <c r="AE16" s="9"/>
     </row>
     <row r="17" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="39">
+      <c r="A17" s="48">
         <v>9</v>
       </c>
       <c r="B17" s="6">
         <v>0</v>
       </c>
-      <c r="C17" s="44">
-        <v>2.0000000000000001E-4</v>
+      <c r="C17" s="48">
+        <v>0.86439999999999995</v>
       </c>
       <c r="D17" s="6">
-        <v>0.13800000000000001</v>
+        <v>0.3569</v>
       </c>
       <c r="E17" s="6">
-        <v>0.24379999999999999</v>
+        <v>0.21659999999999999</v>
       </c>
       <c r="F17" s="6">
-        <v>0.874</v>
+        <v>0.84050000000000002</v>
       </c>
       <c r="G17" s="6">
-        <v>0.47239999999999999</v>
+        <v>0.3417</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="44">
-        <v>93.5</v>
-      </c>
-      <c r="J17" s="44">
-        <v>0.11559999999999999</v>
-      </c>
-      <c r="K17" s="44">
-        <v>0.54759999999999998</v>
-      </c>
-      <c r="L17" s="44">
-        <v>12.29</v>
-      </c>
-      <c r="M17" s="44">
-        <v>0.96519999999999995</v>
+      <c r="I17" s="48">
+        <v>92.59</v>
+      </c>
+      <c r="J17" s="48">
+        <v>0.21890000000000001</v>
+      </c>
+      <c r="K17" s="48">
+        <v>0.4723</v>
+      </c>
+      <c r="L17" s="48">
+        <v>-0.14549999999999999</v>
+      </c>
+      <c r="M17" s="48">
+        <v>0.96279999999999999</v>
       </c>
       <c r="N17" s="31">
         <v>9</v>
       </c>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
       <c r="R17" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>447</v>
+        <v>305</v>
       </c>
       <c r="AB17" s="9" t="s">
         <v>11</v>
       </c>
       <c r="AE17" s="9"/>
     </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+    </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
       <c r="R19" s="1"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="50" t="s">
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="50"/>
+      <c r="M20" s="51"/>
       <c r="R20" s="1"/>
     </row>
     <row r="21" spans="1:31" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -3245,7 +3321,7 @@
         <v>4</v>
       </c>
       <c r="N21" s="20" t="s">
-        <v>474</v>
+        <v>307</v>
       </c>
       <c r="O21" s="20" t="s">
         <v>12</v>
@@ -3253,7 +3329,7 @@
       <c r="P21" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="Q21" s="38" t="s">
+      <c r="Q21" s="37" t="s">
         <v>41</v>
       </c>
       <c r="R21" s="3" t="s">
@@ -3317,7 +3393,7 @@
       </c>
     </row>
     <row r="23" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="39">
+      <c r="A23" s="38">
         <v>2</v>
       </c>
       <c r="B23" s="6">
@@ -3341,26 +3417,26 @@
       <c r="H23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="42">
+      <c r="I23" s="41">
         <v>91.66</v>
       </c>
-      <c r="J23" s="42">
+      <c r="J23" s="41">
         <v>0.78539999999999999</v>
       </c>
-      <c r="K23" s="42">
+      <c r="K23" s="41">
         <v>0.46529999999999999</v>
       </c>
-      <c r="L23" s="42">
+      <c r="L23" s="41">
         <v>77.39</v>
       </c>
-      <c r="M23" s="42">
+      <c r="M23" s="41">
         <v>-0.21229999999999999</v>
       </c>
-      <c r="N23" s="44">
+      <c r="N23" s="43">
         <v>2</v>
       </c>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
       <c r="Q23" s="31"/>
       <c r="R23" s="8" t="s">
         <v>10</v>
@@ -3373,37 +3449,37 @@
       </c>
     </row>
     <row r="24" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="40">
+      <c r="A24" s="39">
         <v>3</v>
       </c>
-      <c r="B24" s="40">
+      <c r="B24" s="39">
         <v>0</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="47">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="E24" s="47" t="s">
+      <c r="E24" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="47" t="s">
+      <c r="F24" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="47" t="s">
+      <c r="G24" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="40" t="s">
+      <c r="H24" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="40">
+      <c r="I24" s="39">
         <v>92.57</v>
       </c>
-      <c r="J24" s="40">
+      <c r="J24" s="39">
         <v>0.25030000000000002</v>
       </c>
-      <c r="K24" s="40">
+      <c r="K24" s="39">
         <v>0.34810000000000002</v>
       </c>
       <c r="L24" s="31">
@@ -3412,16 +3488,16 @@
       <c r="M24" s="31">
         <v>0.80620000000000003</v>
       </c>
-      <c r="N24" s="45">
+      <c r="N24" s="44">
         <v>3</v>
       </c>
-      <c r="O24" s="45" t="s">
+      <c r="O24" s="44" t="s">
         <v>272</v>
       </c>
-      <c r="P24" s="45" t="s">
+      <c r="P24" s="44" t="s">
         <v>273</v>
       </c>
-      <c r="Q24" s="46" t="s">
+      <c r="Q24" s="45" t="s">
         <v>9</v>
       </c>
       <c r="R24" s="8" t="s">
@@ -3435,7 +3511,7 @@
       </c>
     </row>
     <row r="25" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="39">
+      <c r="A25" s="38">
         <v>4</v>
       </c>
       <c r="B25" s="6">
@@ -3453,32 +3529,32 @@
       <c r="F25" s="6">
         <v>0.57930000000000004</v>
       </c>
-      <c r="G25" s="42">
+      <c r="G25" s="41">
         <v>2.4299999999999999E-2</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="42">
+      <c r="I25" s="41">
         <v>93.45</v>
       </c>
-      <c r="J25" s="42">
+      <c r="J25" s="41">
         <v>0.36899999999999999</v>
       </c>
-      <c r="K25" s="42">
+      <c r="K25" s="41">
         <v>0.3826</v>
       </c>
-      <c r="L25" s="42">
+      <c r="L25" s="41">
         <v>60.89</v>
       </c>
-      <c r="M25" s="42">
+      <c r="M25" s="41">
         <v>8.5500000000000007E-2</v>
       </c>
       <c r="N25" s="31">
         <v>4</v>
       </c>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
       <c r="R25" s="8" t="s">
         <v>10</v>
       </c>
@@ -3490,16 +3566,16 @@
       </c>
     </row>
     <row r="26" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="39">
+      <c r="A26" s="38">
         <v>5</v>
       </c>
       <c r="B26" s="6">
         <v>0</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="41">
         <v>0.1203</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="41">
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="E26" s="10" t="s">
@@ -3514,26 +3590,26 @@
       <c r="H26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="42">
+      <c r="I26" s="41">
         <v>92.91</v>
       </c>
-      <c r="J26" s="42">
+      <c r="J26" s="41">
         <v>0.30809999999999998</v>
       </c>
-      <c r="K26" s="42">
+      <c r="K26" s="41">
         <v>0.34660000000000002</v>
       </c>
-      <c r="L26" s="42">
+      <c r="L26" s="41">
         <v>58.95</v>
       </c>
-      <c r="M26" s="42">
+      <c r="M26" s="41">
         <v>0.2283</v>
       </c>
       <c r="N26" s="31">
         <v>5</v>
       </c>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
       <c r="R26" s="8" t="s">
         <v>10</v>
       </c>
@@ -3545,13 +3621,13 @@
       </c>
     </row>
     <row r="27" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="39">
+      <c r="A27" s="38">
         <v>6</v>
       </c>
       <c r="B27" s="6">
         <v>0</v>
       </c>
-      <c r="C27" s="42">
+      <c r="C27" s="41">
         <v>0.95779999999999998</v>
       </c>
       <c r="D27" s="10" t="s">
@@ -3563,32 +3639,32 @@
       <c r="F27" s="6">
         <v>0.58130000000000004</v>
       </c>
-      <c r="G27" s="42">
+      <c r="G27" s="41">
         <v>3.7199999999999997E-2</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="42">
+      <c r="I27" s="41">
         <v>93.45</v>
       </c>
-      <c r="J27" s="42">
+      <c r="J27" s="41">
         <v>0.35299999999999998</v>
       </c>
-      <c r="K27" s="42">
+      <c r="K27" s="41">
         <v>0.38400000000000001</v>
       </c>
-      <c r="L27" s="42">
+      <c r="L27" s="41">
         <v>60.86</v>
       </c>
-      <c r="M27" s="42">
+      <c r="M27" s="41">
         <v>0.10199999999999999</v>
       </c>
       <c r="N27" s="31">
         <v>6</v>
       </c>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
       <c r="R27" s="8" t="s">
         <v>10</v>
       </c>
@@ -3600,7 +3676,7 @@
       </c>
     </row>
     <row r="28" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="39">
+      <c r="A28" s="38">
         <v>7</v>
       </c>
       <c r="B28" s="6">
@@ -3618,32 +3694,32 @@
       <c r="F28" s="6">
         <v>0.76129999999999998</v>
       </c>
-      <c r="G28" s="42">
+      <c r="G28" s="41">
         <v>3.2899999999999999E-2</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="42">
+      <c r="I28" s="41">
         <v>93.88</v>
       </c>
-      <c r="J28" s="42">
+      <c r="J28" s="41">
         <v>0.52610000000000001</v>
       </c>
-      <c r="K28" s="42">
+      <c r="K28" s="41">
         <v>0.32450000000000001</v>
       </c>
-      <c r="L28" s="42">
+      <c r="L28" s="41">
         <v>40.65</v>
       </c>
-      <c r="M28" s="42">
+      <c r="M28" s="41">
         <v>0.51910000000000001</v>
       </c>
       <c r="N28" s="31">
         <v>7</v>
       </c>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
       <c r="R28" s="8" t="s">
         <v>10</v>
       </c>
@@ -3655,13 +3731,13 @@
       </c>
     </row>
     <row r="29" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="39">
+      <c r="A29" s="38">
         <v>8</v>
       </c>
       <c r="B29" s="6">
         <v>0</v>
       </c>
-      <c r="C29" s="42">
+      <c r="C29" s="41">
         <v>0.5645</v>
       </c>
       <c r="D29" s="6">
@@ -3679,26 +3755,26 @@
       <c r="H29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="42">
+      <c r="I29" s="41">
         <v>93.92</v>
       </c>
-      <c r="J29" s="42">
+      <c r="J29" s="41">
         <v>0.36020000000000002</v>
       </c>
-      <c r="K29" s="42">
+      <c r="K29" s="41">
         <v>0.32950000000000002</v>
       </c>
-      <c r="L29" s="42">
+      <c r="L29" s="41">
         <v>51.98</v>
       </c>
-      <c r="M29" s="42">
+      <c r="M29" s="41">
         <v>0.28899999999999998</v>
       </c>
       <c r="N29" s="31">
         <v>8</v>
       </c>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
       <c r="R29" s="8" t="s">
         <v>10</v>
       </c>
@@ -3710,13 +3786,13 @@
       </c>
     </row>
     <row r="30" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="39">
+      <c r="A30" s="38">
         <v>9</v>
       </c>
       <c r="B30" s="6">
         <v>0</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="41">
         <v>4.41E-2</v>
       </c>
       <c r="D30" s="6">
@@ -3734,26 +3810,26 @@
       <c r="H30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I30" s="42">
+      <c r="I30" s="41">
         <v>95.98</v>
       </c>
-      <c r="J30" s="42">
+      <c r="J30" s="41">
         <v>6.13E-2</v>
       </c>
-      <c r="K30" s="42">
+      <c r="K30" s="41">
         <v>9.7900000000000001E-2</v>
       </c>
-      <c r="L30" s="42">
+      <c r="L30" s="41">
         <v>51.49</v>
       </c>
-      <c r="M30" s="42">
+      <c r="M30" s="41">
         <v>-0.23599999999999999</v>
       </c>
       <c r="N30" s="31">
         <v>9</v>
       </c>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
       <c r="R30" s="8" t="s">
         <v>10</v>
       </c>
@@ -3771,59 +3847,89 @@
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B6:K6"/>
     <mergeCell ref="B20:K20"/>
     <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="M19 L55:L1048576">
-    <cfRule type="cellIs" dxfId="11" priority="50" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="57" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="58" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="59" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19 K31:K1048576">
-    <cfRule type="cellIs" dxfId="8" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="43" operator="lessThan">
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="44" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22:J30 J9:J17">
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="lessThan">
+  <conditionalFormatting sqref="J22:J30">
+    <cfRule type="cellIs" dxfId="13" priority="22" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M22:M30 M9:M17">
-    <cfRule type="cellIs" dxfId="5" priority="19" operator="between">
+  <conditionalFormatting sqref="M22:M30">
+    <cfRule type="cellIs" dxfId="12" priority="26" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="27" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="28" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22:L30 L9:L17">
-    <cfRule type="cellIs" dxfId="2" priority="17" operator="lessThan">
+  <conditionalFormatting sqref="L22:L30">
+    <cfRule type="cellIs" dxfId="9" priority="24" operator="lessThan">
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="25" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23 D24 C26:C27 D26 C29:C30 D28:D30 E30 F25:G25 F27:G30 C10 D11 C13:C14 D13 C16:C17 D15:D17 E17 F12:G12 F14:G17">
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="greaterThan">
+  <conditionalFormatting sqref="C23 D24 C26:C27 D26 C29:C30 D28:D30 E30 F25:G25 F27:G30">
+    <cfRule type="cellIs" dxfId="7" priority="23" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:J17">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9:M17">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="between">
+      <formula>0.5</formula>
+      <formula>0.8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThan">
+      <formula>0.8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:L17">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>-25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
+      <formula>25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10 D11 C13:C14 D13 C16:C17 D15:D17 E17 F12:G12 F14:G17">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3834,11 +3940,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E8CF0D-1596-4A2F-A50C-9BD320018867}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A07B362-4B6C-4C53-91E7-80B7BF97D2BC}">
   <dimension ref="A1:A528"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3891,27 +3997,27 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -3950,12 +4056,12 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -3968,17 +4074,17 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
@@ -3993,17 +4099,17 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -4034,17 +4140,17 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>292</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
@@ -4062,17 +4168,17 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
@@ -4080,7 +4186,7 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
@@ -4090,7 +4196,7 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
@@ -4100,7 +4206,7 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
@@ -4126,27 +4232,27 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
@@ -4185,17 +4291,17 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
@@ -4208,17 +4314,17 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
@@ -4233,17 +4339,17 @@
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
@@ -4294,17 +4400,17 @@
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>310</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
@@ -4322,17 +4428,17 @@
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -4340,7 +4446,7 @@
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
@@ -4350,7 +4456,7 @@
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
@@ -4360,7 +4466,7 @@
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
@@ -4386,27 +4492,27 @@
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
@@ -4440,22 +4546,22 @@
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
@@ -4468,17 +4574,17 @@
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
@@ -4493,17 +4599,17 @@
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
@@ -4516,17 +4622,17 @@
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
-        <v>328</v>
+        <v>127</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
@@ -4554,17 +4660,17 @@
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
@@ -4582,17 +4688,17 @@
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="14" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="14" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
@@ -4600,7 +4706,7 @@
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="15" t="s">
-        <v>337</v>
+        <v>287</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
@@ -4610,7 +4716,7 @@
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>338</v>
+        <v>288</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
@@ -4620,7 +4726,7 @@
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="15" t="s">
-        <v>339</v>
+        <v>289</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
@@ -4646,27 +4752,27 @@
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="14" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="14" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="14" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="14" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="14" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
@@ -4705,22 +4811,22 @@
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="14" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="14" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="14" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="14" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
@@ -4733,17 +4839,17 @@
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="14" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="14" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="14" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
@@ -4758,17 +4864,17 @@
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="14" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="14" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="14" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
@@ -4786,17 +4892,17 @@
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="14" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="14" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="14" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
@@ -4824,17 +4930,17 @@
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="14" t="s">
-        <v>353</v>
+        <v>85</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="14" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="14" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
@@ -4852,17 +4958,17 @@
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="14" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="14" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="14" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
@@ -4870,7 +4976,7 @@
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="15" t="s">
-        <v>359</v>
+        <v>291</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
@@ -4880,7 +4986,7 @@
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>360</v>
+        <v>292</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
@@ -4890,7 +4996,7 @@
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="15" t="s">
-        <v>361</v>
+        <v>293</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
@@ -4916,27 +5022,27 @@
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="14" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="14" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="14" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="14" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="14" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
@@ -4975,22 +5081,22 @@
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="14" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="14" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="14" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="14" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
@@ -5003,17 +5109,17 @@
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="14" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="14" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="14" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
@@ -5028,17 +5134,17 @@
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="14" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="14" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="14" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
@@ -5056,17 +5162,17 @@
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="14" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="14" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="14" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
@@ -5099,12 +5205,12 @@
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="14" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="14" t="s">
-        <v>376</v>
+        <v>323</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
@@ -5122,17 +5228,17 @@
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="14" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="14" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="14" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
@@ -5140,7 +5246,7 @@
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="15" t="s">
-        <v>380</v>
+        <v>294</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
@@ -5150,7 +5256,7 @@
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
-        <v>381</v>
+        <v>295</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
@@ -5160,7 +5266,7 @@
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="15" t="s">
-        <v>382</v>
+        <v>296</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
@@ -5186,27 +5292,27 @@
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="14" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="14" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="14" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="14" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="14" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
@@ -5245,27 +5351,27 @@
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="14" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="14" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="14" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="14" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="14" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
@@ -5278,17 +5384,17 @@
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="14" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="14" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="14" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
@@ -5303,17 +5409,17 @@
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="14" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="14" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="14" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
@@ -5331,22 +5437,22 @@
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="14" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="14" t="s">
-        <v>395</v>
+        <v>303</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="14" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="14" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
@@ -5374,17 +5480,17 @@
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="14" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="14" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="14" t="s">
-        <v>312</v>
+        <v>404</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
@@ -5402,17 +5508,17 @@
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="14" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="14" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="14" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
@@ -5420,7 +5526,7 @@
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="15" t="s">
-        <v>402</v>
+        <v>297</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
@@ -5430,7 +5536,7 @@
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="7" t="s">
-        <v>403</v>
+        <v>298</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
@@ -5440,7 +5546,7 @@
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="15" t="s">
-        <v>404</v>
+        <v>299</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
@@ -5466,27 +5572,27 @@
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="14" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="14" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="14" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="14" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="14" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
@@ -5520,32 +5626,32 @@
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="14" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="14" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="14" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="14" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="14" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="14" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
@@ -5558,17 +5664,17 @@
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="14" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="14" t="s">
-        <v>345</v>
+        <v>414</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="14" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
@@ -5583,17 +5689,17 @@
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="14" t="s">
-        <v>347</v>
+        <v>416</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="14" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="14" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
@@ -5611,22 +5717,22 @@
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="14" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="14" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="14" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="14" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
@@ -5654,17 +5760,17 @@
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="14" t="s">
-        <v>353</v>
+        <v>85</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="14" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="14" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
@@ -5682,17 +5788,17 @@
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="14" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="14" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="14" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
@@ -5700,7 +5806,7 @@
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="15" t="s">
-        <v>422</v>
+        <v>300</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
@@ -5710,7 +5816,7 @@
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="7" t="s">
-        <v>423</v>
+        <v>301</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
@@ -5720,7 +5826,7 @@
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="15" t="s">
-        <v>424</v>
+        <v>302</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
@@ -5746,27 +5852,27 @@
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="14" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="14" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="14" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="14" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="14" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
@@ -5800,37 +5906,37 @@
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="14" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="14" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="14" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="14" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="14" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="14" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="14" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
@@ -5843,17 +5949,17 @@
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="14" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="14" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="14" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
@@ -5868,17 +5974,17 @@
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="14" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="14" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="14" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
@@ -5896,27 +6002,27 @@
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="14" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="14" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="14" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="14" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="14" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
@@ -5949,12 +6055,12 @@
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="14" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="14" t="s">
-        <v>376</v>
+        <v>323</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
@@ -5972,17 +6078,17 @@
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="14" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="14" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="14" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
@@ -5990,7 +6096,7 @@
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="15" t="s">
-        <v>446</v>
+        <v>304</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
@@ -6000,7 +6106,7 @@
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="7" t="s">
-        <v>447</v>
+        <v>305</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
@@ -6010,7 +6116,7 @@
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="15" t="s">
-        <v>448</v>
+        <v>306</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
@@ -6036,27 +6142,27 @@
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="14" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="14" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="14" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="14" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="14" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
@@ -6095,37 +6201,37 @@
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="14" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
@@ -6138,17 +6244,17 @@
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="14" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="14" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
@@ -6163,17 +6269,17 @@
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="14" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
@@ -6191,32 +6297,32 @@
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="14" t="s">
-        <v>259</v>
+        <v>460</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
@@ -6244,17 +6350,17 @@
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" s="14" t="s">
-        <v>467</v>
+        <v>85</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" s="14" t="s">
-        <v>469</v>
+        <v>323</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
@@ -6272,17 +6378,17 @@
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="14" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="14" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="14" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
@@ -6299,7 +6405,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/4_wy2016-2018/4_pTHg Model Results.xlsx
+++ b/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/4_wy2016-2018/4_pTHg Model Results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slrose\R\2018_CCSB_LoadsData_WY2010-2017\Model Stats_rloadest\4_wy2016-2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2105A1DF-2931-4177-B1E0-E506E8B80385}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088FDC8C-CF6D-4DE6-A101-3CBC27835050}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pTHg wy2016-18 Model Results" sheetId="2" r:id="rId1"/>
-    <sheet name="Outlet_30ct" sheetId="9" r:id="rId2"/>
-    <sheet name="Rumsey" sheetId="8" r:id="rId3"/>
+    <sheet name="Combined" sheetId="10" r:id="rId2"/>
+    <sheet name="Outlet_30ct" sheetId="9" r:id="rId3"/>
+    <sheet name="Rumsey" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="669">
   <si>
     <t>Model #</t>
   </si>
@@ -1489,6 +1490,594 @@
   </si>
   <si>
     <t>26.7, 32.0, 61.4</t>
+  </si>
+  <si>
+    <t>Combined Outflow pTHg</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_Combinedm1 &lt;- loadReg(pTHg ~model(1), data = pTHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(1), data = pTHg_Combined, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_Combinedm1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Number of Observations: 36</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Center of Decimal Time: 2016.919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  Center of ln(Q): 7.0238</t>
+  </si>
+  <si>
+    <t>(Intercept)   -2.346     0.1634  -14.36       0</t>
+  </si>
+  <si>
+    <t>lnQ            1.507     0.0967   15.59       0</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.9522</t>
+  </si>
+  <si>
+    <t>R-squared: 87.72 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 75.5 on 1 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.2402</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.4948</t>
+  </si>
+  <si>
+    <t>Est   0 0.02 0.58 1.69 4.93 6.23 6.43</t>
+  </si>
+  <si>
+    <t>Obs   0 0.02 0.16 1.39 4.82 5.42 8.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 11.6 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.869</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_Combinedm2 &lt;- loadReg(pTHg ~model(2), data = pTHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(2), data = pTHg_Combined, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_Combinedm2</t>
+  </si>
+  <si>
+    <t>(Intercept) -2.44464    0.26221 -9.3232  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.50706    0.09781 15.4088  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.03444    0.07127  0.4833  0.6143</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.9742</t>
+  </si>
+  <si>
+    <t>R-squared: 87.81 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 75.76 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.1697</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.5174</t>
+  </si>
+  <si>
+    <t>Est   0 0.02 0.54 1.70 5.35 6.86 7.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 18.11 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8475</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_Combinedm3 &lt;- loadReg(pTHg ~model(3), data = pTHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(3), data = pTHg_Combined, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_Combinedm3</t>
+  </si>
+  <si>
+    <t>(Intercept)  -2.4259    0.16536 -14.671  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.5285    0.09479  16.125  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.4753    0.27459  -1.731  0.0769</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.8994</t>
+  </si>
+  <si>
+    <t>R-squared: 88.74 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 78.63 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.7418</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.4281</t>
+  </si>
+  <si>
+    <t>lnQ     1.017</t>
+  </si>
+  <si>
+    <t>DECTIME 1.017</t>
+  </si>
+  <si>
+    <t>Est   0 0.02 0.55 1.73 4.26 5.31 5.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 1.758 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8676</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_Combinedm4 &lt;- loadReg(pTHg ~model(4), data = pTHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(4), data = pTHg_Combined, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_Combinedm4</t>
+  </si>
+  <si>
+    <t>(Intercept)  -3.7045     0.9728 -3.8081  0.0002</t>
+  </si>
+  <si>
+    <t>lnQ           1.4257     0.1030 13.8453  0.0000</t>
+  </si>
+  <si>
+    <t>sin.DECTIME   0.7678     0.8526  0.9006  0.3425</t>
+  </si>
+  <si>
+    <t>cos.DECTIME   1.4959     0.8228  1.8180  0.0600</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.8727</t>
+  </si>
+  <si>
+    <t>R-squared: 89.41 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 80.83 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0619</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3736</t>
+  </si>
+  <si>
+    <t>lnQ         1.237</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 3.973</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 4.201</t>
+  </si>
+  <si>
+    <t>Est   0 0.02 0.41 1.80 5.20 5.86 6.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 13.22 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8587</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_Combinedm5 &lt;- loadReg(pTHg ~model(5), data = pTHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(5), data = pTHg_Combined, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_Combinedm5</t>
+  </si>
+  <si>
+    <t>(Intercept) -2.67640    0.27610  -9.693  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.53332    0.09449  16.227  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.08148    0.07209   1.130  0.2352</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.58129    0.28909  -2.011  0.0385</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.892</t>
+  </si>
+  <si>
+    <t>R-squared: 89.18 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 80.04 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.5327</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.455</t>
+  </si>
+  <si>
+    <t>lnQ     1.019</t>
+  </si>
+  <si>
+    <t>lnQ2    1.118</t>
+  </si>
+  <si>
+    <t>DECTIME 1.137</t>
+  </si>
+  <si>
+    <t>Est   0 0.02 0.44 1.71 5.02 6.59 7.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 13.97 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8594</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_Combinedm6 &lt;- loadReg(pTHg ~model(6), data = pTHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(6), data = pTHg_Combined, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_Combinedm6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Estimate Std. Error  z-score p-value</t>
+  </si>
+  <si>
+    <t>(Intercept) -3.676892    1.03155 -3.56444  0.0004</t>
+  </si>
+  <si>
+    <t>lnQ          1.425604    0.10461 13.62718  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.006995    0.07504 -0.09321  0.9200</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  0.751998    0.88261  0.85202  0.3613</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  1.498342    0.83629  1.79165  0.0596</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.9006</t>
+  </si>
+  <si>
+    <t>G-squared: 80.84 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0582</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3685</t>
+  </si>
+  <si>
+    <t>lnQ         1.238</t>
+  </si>
+  <si>
+    <t>lnQ2        1.199</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 4.126</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 4.205</t>
+  </si>
+  <si>
+    <t>Est   0 0.02 0.42 1.82 5.06 5.55 6.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 11.88 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8645</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_Combinedm7 &lt;- loadReg(pTHg ~model(7), data = pTHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(7), data = pTHg_Combined, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_Combinedm7</t>
+  </si>
+  <si>
+    <t>(Intercept)  -3.1638     1.0698 -2.9574  0.0028</t>
+  </si>
+  <si>
+    <t>lnQ           1.4698     0.1089 13.4910  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.3600     0.3048 -1.1810  0.2082</t>
+  </si>
+  <si>
+    <t>sin.DECTIME   0.2626     0.9492  0.2767  0.7657</t>
+  </si>
+  <si>
+    <t>cos.DECTIME   0.9889     0.9236  1.0707  0.2529</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.8621</t>
+  </si>
+  <si>
+    <t>R-squared: 89.87 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 82.41 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.2268</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3697</t>
+  </si>
+  <si>
+    <t>lnQ         1.402</t>
+  </si>
+  <si>
+    <t>DECTIME     1.308</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 4.985</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 5.359</t>
+  </si>
+  <si>
+    <t>Est   0 0.02 0.44 1.68 4.47 5.59 6.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 6.848 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8918</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_Combinedm8 &lt;- loadReg(pTHg ~model(8), data = pTHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(8), data = pTHg_Combined, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_Combinedm8</t>
+  </si>
+  <si>
+    <t>(Intercept) -3.21136    1.09266 -2.9390  0.0025</t>
+  </si>
+  <si>
+    <t>lnQ          1.47595    0.11174 13.2088  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.02962    0.08031  0.3688  0.6865</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.40603    0.33342 -1.2178  0.1875</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  0.26510    0.96276  0.2754  0.7631</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  0.91368    0.95872  0.9530  0.3001</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.8868</t>
+  </si>
+  <si>
+    <t>R-squared: 89.91 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 82.57 on 5 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.2025</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3885</t>
+  </si>
+  <si>
+    <t>lnQ         1.434</t>
+  </si>
+  <si>
+    <t>lnQ2        1.395</t>
+  </si>
+  <si>
+    <t>DECTIME     1.521</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 4.986</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 5.613</t>
+  </si>
+  <si>
+    <t>Est   0 0.02 0.43 1.69 4.74 5.92 6.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 10.71 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8889</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_Combinedm9 &lt;- loadReg(pTHg ~model(9), data = pTHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(9), data = pTHg_Combined, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; pTHg_Combinedm9</t>
+  </si>
+  <si>
+    <t>(Intercept) -2.51841    1.13491 -2.2190  0.0175</t>
+  </si>
+  <si>
+    <t>lnQ          1.64694    0.14768 11.1521  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.02989    0.07787  0.3838  0.6693</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.58864    0.34062 -1.7282  0.0603</t>
+  </si>
+  <si>
+    <t>DECTIME2     0.92441    0.54249  1.7040  0.0638</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -0.89689    1.15612 -0.7758  0.3898</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  0.24044    1.01015  0.2380  0.7910</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.8339</t>
+  </si>
+  <si>
+    <t>R-squared: 90.83 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 86.01 on 6 degrees of freedom</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3927</t>
+  </si>
+  <si>
+    <t>lnQ         2.664</t>
+  </si>
+  <si>
+    <t>DECTIME2    2.439</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 7.646</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 6.627</t>
+  </si>
+  <si>
+    <t>Est   0 0.02 0.34 1.75 4.30 7.43 8.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 11.15 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8776</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 36; Period of record: 2016-01-20 to 2018-04-08</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(1), data = pTHg_Combined, flow = "Flow", :</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(2), data = pTHg_Combined, flow = "Flow", :</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(3), data = pTHg_Combined, flow = "Flow", :</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(4), data = pTHg_Combined, flow = "Flow", :</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(5), data = pTHg_Combined, flow = "Flow", :</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(6), data = pTHg_Combined, flow = "Flow", :</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(7), data = pTHg_Combined, flow = "Flow", :</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(8), data = pTHg_Combined, flow = "Flow", :</t>
+  </si>
+  <si>
+    <t>In loadReg(pTHg ~ model(9), data = pTHg_Combined, flow = "Flow", :</t>
+  </si>
+  <si>
+    <t>20.97, 26.22, 29.88</t>
+  </si>
+  <si>
+    <t>26.42, 26.83, 61.40</t>
   </si>
 </sst>
 </file>
@@ -1734,7 +2323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1867,6 +2456,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1891,14 +2486,134 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2431,11 +3146,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE30"/>
+  <dimension ref="A1:AE43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P18" sqref="P18"/>
+      <selection pane="bottomLeft" activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2457,24 +3172,24 @@
       <c r="A1" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50" t="s">
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="50"/>
+      <c r="M1" s="52"/>
       <c r="O1" s="21"/>
       <c r="R1" s="21"/>
     </row>
@@ -2611,18 +3326,18 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="48"/>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="57" t="s">
         <v>274</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="59"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="O6" s="48"/>
@@ -2632,22 +3347,22 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="48"/>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="54" t="s">
         <v>309</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="51" t="s">
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="51"/>
+      <c r="M7" s="53"/>
       <c r="O7" s="48"/>
       <c r="P7" s="48"/>
       <c r="R7" s="48"/>
@@ -2839,7 +3554,7 @@
       <c r="C11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="51">
         <v>0.13739999999999999</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -3245,40 +3960,46 @@
       <c r="P18" s="48"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B19" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="R19" s="1"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="57" t="s">
+        <v>473</v>
+      </c>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="R19" s="50"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B20" s="52" t="s">
-        <v>271</v>
-      </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="51" t="s">
+      <c r="A20" s="50"/>
+      <c r="B20" s="54" t="s">
+        <v>657</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="51"/>
-      <c r="R20" s="1"/>
+      <c r="M20" s="53"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="R20" s="50"/>
     </row>
     <row r="21" spans="1:31" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
@@ -3362,45 +4083,49 @@
         <v>7</v>
       </c>
       <c r="I22" s="6">
-        <v>91.51</v>
+        <v>87.72</v>
       </c>
       <c r="J22" s="6">
-        <v>0.40329999999999999</v>
+        <v>0.2402</v>
       </c>
       <c r="K22" s="6">
-        <v>0.44669999999999999</v>
+        <v>0.49480000000000002</v>
       </c>
       <c r="L22" s="6">
-        <v>50.38</v>
+        <v>11.6</v>
       </c>
       <c r="M22" s="6">
-        <v>0.45939999999999998</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="N22" s="6">
         <v>1</v>
       </c>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
+      <c r="O22" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="P22" s="31" t="s">
+        <v>667</v>
+      </c>
       <c r="Q22" s="31"/>
       <c r="R22" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T22" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD22" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="AB22" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="38">
+      <c r="A23" s="50">
         <v>2</v>
       </c>
       <c r="B23" s="6">
         <v>0</v>
       </c>
       <c r="C23" s="19">
-        <v>0.33689999999999998</v>
+        <v>0.61429999999999996</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>9</v>
@@ -3417,22 +4142,22 @@
       <c r="H23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="41">
-        <v>91.66</v>
-      </c>
-      <c r="J23" s="41">
-        <v>0.78539999999999999</v>
-      </c>
-      <c r="K23" s="41">
-        <v>0.46529999999999999</v>
-      </c>
-      <c r="L23" s="41">
-        <v>77.39</v>
-      </c>
-      <c r="M23" s="41">
-        <v>-0.21229999999999999</v>
-      </c>
-      <c r="N23" s="43">
+      <c r="I23" s="50">
+        <v>87.81</v>
+      </c>
+      <c r="J23" s="50">
+        <v>0.16969999999999999</v>
+      </c>
+      <c r="K23" s="50">
+        <v>0.51739999999999997</v>
+      </c>
+      <c r="L23" s="50">
+        <v>18.11</v>
+      </c>
+      <c r="M23" s="50">
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="N23" s="50">
         <v>2</v>
       </c>
       <c r="O23" s="40"/>
@@ -3442,9 +4167,9 @@
         <v>10</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD23" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="AB23" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3459,7 +4184,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="47">
-        <v>8.3999999999999995E-3</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="E24" s="46" t="s">
         <v>9</v>
@@ -3470,23 +4195,23 @@
       <c r="G24" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="39" t="s">
+      <c r="H24" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I24" s="39">
-        <v>92.57</v>
+        <v>88.74</v>
       </c>
       <c r="J24" s="39">
-        <v>0.25030000000000002</v>
+        <v>0.74180000000000001</v>
       </c>
       <c r="K24" s="39">
-        <v>0.34810000000000002</v>
-      </c>
-      <c r="L24" s="31">
-        <v>25.57</v>
-      </c>
-      <c r="M24" s="31">
-        <v>0.80620000000000003</v>
+        <v>0.42809999999999998</v>
+      </c>
+      <c r="L24" s="39">
+        <v>1.758</v>
+      </c>
+      <c r="M24" s="39">
+        <v>0.86760000000000004</v>
       </c>
       <c r="N24" s="44">
         <v>3</v>
@@ -3495,23 +4220,21 @@
         <v>272</v>
       </c>
       <c r="P24" s="44" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q24" s="45" t="s">
-        <v>9</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="Q24" s="45"/>
       <c r="R24" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD24" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB24" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="38">
+      <c r="A25" s="50">
         <v>4</v>
       </c>
       <c r="B25" s="6">
@@ -3527,56 +4250,56 @@
         <v>9</v>
       </c>
       <c r="F25" s="6">
-        <v>0.57930000000000004</v>
-      </c>
-      <c r="G25" s="41">
-        <v>2.4299999999999999E-2</v>
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="G25" s="50">
+        <v>0.06</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="41">
-        <v>93.45</v>
-      </c>
-      <c r="J25" s="41">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="K25" s="41">
-        <v>0.3826</v>
-      </c>
-      <c r="L25" s="41">
-        <v>60.89</v>
-      </c>
-      <c r="M25" s="41">
-        <v>8.5500000000000007E-2</v>
+      <c r="I25" s="50">
+        <v>89.41</v>
+      </c>
+      <c r="J25" s="50">
+        <v>6.1899999999999997E-2</v>
+      </c>
+      <c r="K25" s="50">
+        <v>0.37359999999999999</v>
+      </c>
+      <c r="L25" s="50">
+        <v>13.22</v>
+      </c>
+      <c r="M25" s="50">
+        <v>0.85870000000000002</v>
       </c>
       <c r="N25" s="31">
         <v>4</v>
       </c>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
       <c r="R25" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T25" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD25" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="AB25" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="38">
+      <c r="A26" s="50">
         <v>5</v>
       </c>
       <c r="B26" s="6">
         <v>0</v>
       </c>
-      <c r="C26" s="41">
-        <v>0.1203</v>
-      </c>
-      <c r="D26" s="41">
-        <v>3.7000000000000002E-3</v>
+      <c r="C26" s="50">
+        <v>0.23519999999999999</v>
+      </c>
+      <c r="D26" s="50">
+        <v>3.85E-2</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>9</v>
@@ -3590,45 +4313,45 @@
       <c r="H26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="41">
-        <v>92.91</v>
-      </c>
-      <c r="J26" s="41">
-        <v>0.30809999999999998</v>
-      </c>
-      <c r="K26" s="41">
-        <v>0.34660000000000002</v>
-      </c>
-      <c r="L26" s="41">
-        <v>58.95</v>
-      </c>
-      <c r="M26" s="41">
-        <v>0.2283</v>
+      <c r="I26" s="50">
+        <v>89.18</v>
+      </c>
+      <c r="J26" s="50">
+        <v>0.53269999999999995</v>
+      </c>
+      <c r="K26" s="50">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="L26" s="50">
+        <v>13.97</v>
+      </c>
+      <c r="M26" s="50">
+        <v>0.85940000000000005</v>
       </c>
       <c r="N26" s="31">
         <v>5</v>
       </c>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
       <c r="R26" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T26" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD26" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="AB26" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="38">
+      <c r="A27" s="50">
         <v>6</v>
       </c>
       <c r="B27" s="6">
         <v>0</v>
       </c>
-      <c r="C27" s="41">
-        <v>0.95779999999999998</v>
+      <c r="C27" s="50">
+        <v>0.92</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>9</v>
@@ -3637,46 +4360,46 @@
         <v>9</v>
       </c>
       <c r="F27" s="6">
-        <v>0.58130000000000004</v>
-      </c>
-      <c r="G27" s="41">
-        <v>3.7199999999999997E-2</v>
+        <v>0.36130000000000001</v>
+      </c>
+      <c r="G27" s="50">
+        <v>5.96E-2</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="41">
-        <v>93.45</v>
-      </c>
-      <c r="J27" s="41">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="K27" s="41">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="L27" s="41">
-        <v>60.86</v>
-      </c>
-      <c r="M27" s="41">
-        <v>0.10199999999999999</v>
+      <c r="I27" s="50">
+        <v>89.41</v>
+      </c>
+      <c r="J27" s="50">
+        <v>5.8200000000000002E-2</v>
+      </c>
+      <c r="K27" s="50">
+        <v>0.36849999999999999</v>
+      </c>
+      <c r="L27" s="50">
+        <v>11.88</v>
+      </c>
+      <c r="M27" s="50">
+        <v>0.86450000000000005</v>
       </c>
       <c r="N27" s="31">
         <v>6</v>
       </c>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
       <c r="R27" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD27" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="AB27" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="38">
+      <c r="A28" s="50">
         <v>7</v>
       </c>
       <c r="B28" s="6">
@@ -3686,229 +4409,880 @@
         <v>9</v>
       </c>
       <c r="D28" s="6">
-        <v>6.25E-2</v>
+        <v>0.2082</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="6">
-        <v>0.76129999999999998</v>
-      </c>
-      <c r="G28" s="41">
-        <v>3.2899999999999999E-2</v>
+        <v>0.76570000000000005</v>
+      </c>
+      <c r="G28" s="50">
+        <v>0.25290000000000001</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="41">
-        <v>93.88</v>
-      </c>
-      <c r="J28" s="41">
-        <v>0.52610000000000001</v>
-      </c>
-      <c r="K28" s="41">
-        <v>0.32450000000000001</v>
-      </c>
-      <c r="L28" s="41">
-        <v>40.65</v>
-      </c>
-      <c r="M28" s="41">
-        <v>0.51910000000000001</v>
+      <c r="I28" s="50">
+        <v>89.87</v>
+      </c>
+      <c r="J28" s="50">
+        <v>0.2268</v>
+      </c>
+      <c r="K28" s="50">
+        <v>0.36969999999999997</v>
+      </c>
+      <c r="L28" s="50">
+        <v>6.8479999999999999</v>
+      </c>
+      <c r="M28" s="50">
+        <v>0.89180000000000004</v>
       </c>
       <c r="N28" s="31">
         <v>7</v>
       </c>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
       <c r="R28" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T28" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD28" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="AB28" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="38">
+      <c r="A29" s="50">
         <v>8</v>
       </c>
       <c r="B29" s="6">
         <v>0</v>
       </c>
-      <c r="C29" s="41">
-        <v>0.5645</v>
+      <c r="C29" s="50">
+        <v>0.6865</v>
       </c>
       <c r="D29" s="6">
-        <v>5.1299999999999998E-2</v>
+        <v>0.1875</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="6">
-        <v>0.67789999999999995</v>
+        <v>0.7631</v>
       </c>
       <c r="G29" s="6">
-        <v>8.0299999999999996E-2</v>
+        <v>0.30009999999999998</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="41">
-        <v>93.92</v>
-      </c>
-      <c r="J29" s="41">
-        <v>0.36020000000000002</v>
-      </c>
-      <c r="K29" s="41">
-        <v>0.32950000000000002</v>
-      </c>
-      <c r="L29" s="41">
-        <v>51.98</v>
-      </c>
-      <c r="M29" s="41">
-        <v>0.28899999999999998</v>
+      <c r="I29" s="50">
+        <v>89.91</v>
+      </c>
+      <c r="J29" s="50">
+        <v>0.20250000000000001</v>
+      </c>
+      <c r="K29" s="50">
+        <v>0.38850000000000001</v>
+      </c>
+      <c r="L29" s="50">
+        <v>10.71</v>
+      </c>
+      <c r="M29" s="50">
+        <v>0.88890000000000002</v>
       </c>
       <c r="N29" s="31">
         <v>8</v>
       </c>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
       <c r="R29" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T29" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD29" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="AB29" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="38">
+      <c r="A30" s="50">
         <v>9</v>
       </c>
       <c r="B30" s="6">
         <v>0</v>
       </c>
-      <c r="C30" s="41">
-        <v>4.41E-2</v>
+      <c r="C30" s="50">
+        <v>0.66930000000000001</v>
       </c>
       <c r="D30" s="6">
-        <v>0.13120000000000001</v>
+        <v>6.0299999999999999E-2</v>
       </c>
       <c r="E30" s="6">
-        <v>0</v>
+        <v>6.3799999999999996E-2</v>
       </c>
       <c r="F30" s="6">
-        <v>1.0500000000000001E-2</v>
+        <v>0.38979999999999998</v>
       </c>
       <c r="G30" s="6">
-        <v>0.45240000000000002</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I30" s="41">
-        <v>95.98</v>
-      </c>
-      <c r="J30" s="41">
-        <v>6.13E-2</v>
-      </c>
-      <c r="K30" s="41">
-        <v>9.7900000000000001E-2</v>
-      </c>
-      <c r="L30" s="41">
-        <v>51.49</v>
-      </c>
-      <c r="M30" s="41">
-        <v>-0.23599999999999999</v>
+      <c r="I30" s="50">
+        <v>90.83</v>
+      </c>
+      <c r="J30" s="50">
+        <v>0.20250000000000001</v>
+      </c>
+      <c r="K30" s="50">
+        <v>0.39269999999999999</v>
+      </c>
+      <c r="L30" s="50">
+        <v>11.15</v>
+      </c>
+      <c r="M30" s="50">
+        <v>0.87760000000000005</v>
       </c>
       <c r="N30" s="31">
         <v>9</v>
       </c>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
       <c r="R30" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T30" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="AB30" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B32" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="R32" s="1"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B33" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" s="53"/>
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" spans="1:30" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N34" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="O34" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="P34" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q34" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
+        <v>1</v>
+      </c>
+      <c r="B35" s="6">
+        <v>0</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="6">
+        <v>91.51</v>
+      </c>
+      <c r="J35" s="6">
+        <v>0.40329999999999999</v>
+      </c>
+      <c r="K35" s="6">
+        <v>0.44669999999999999</v>
+      </c>
+      <c r="L35" s="6">
+        <v>50.38</v>
+      </c>
+      <c r="M35" s="6">
+        <v>0.45939999999999998</v>
+      </c>
+      <c r="N35" s="6">
+        <v>1</v>
+      </c>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T35" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD35" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="38">
+        <v>2</v>
+      </c>
+      <c r="B36" s="6">
+        <v>0</v>
+      </c>
+      <c r="C36" s="19">
+        <v>0.33689999999999998</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="41">
+        <v>91.66</v>
+      </c>
+      <c r="J36" s="41">
+        <v>0.78539999999999999</v>
+      </c>
+      <c r="K36" s="41">
+        <v>0.46529999999999999</v>
+      </c>
+      <c r="L36" s="41">
+        <v>77.39</v>
+      </c>
+      <c r="M36" s="41">
+        <v>-0.21229999999999999</v>
+      </c>
+      <c r="N36" s="43">
+        <v>2</v>
+      </c>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T36" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD36" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="39">
+        <v>3</v>
+      </c>
+      <c r="B37" s="39">
+        <v>0</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="47">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="E37" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="39">
+        <v>92.57</v>
+      </c>
+      <c r="J37" s="39">
+        <v>0.25030000000000002</v>
+      </c>
+      <c r="K37" s="39">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="L37" s="31">
+        <v>25.57</v>
+      </c>
+      <c r="M37" s="31">
+        <v>0.80620000000000003</v>
+      </c>
+      <c r="N37" s="44">
+        <v>3</v>
+      </c>
+      <c r="O37" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="P37" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q37" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="R37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T37" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD37" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="38">
+        <v>4</v>
+      </c>
+      <c r="B38" s="6">
+        <v>0</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0.57930000000000004</v>
+      </c>
+      <c r="G38" s="41">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="41">
+        <v>93.45</v>
+      </c>
+      <c r="J38" s="41">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="K38" s="41">
+        <v>0.3826</v>
+      </c>
+      <c r="L38" s="41">
+        <v>60.89</v>
+      </c>
+      <c r="M38" s="41">
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="N38" s="31">
+        <v>4</v>
+      </c>
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
+      <c r="R38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T38" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD38" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="38">
+        <v>5</v>
+      </c>
+      <c r="B39" s="6">
+        <v>0</v>
+      </c>
+      <c r="C39" s="41">
+        <v>0.1203</v>
+      </c>
+      <c r="D39" s="41">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="41">
+        <v>92.91</v>
+      </c>
+      <c r="J39" s="41">
+        <v>0.30809999999999998</v>
+      </c>
+      <c r="K39" s="41">
+        <v>0.34660000000000002</v>
+      </c>
+      <c r="L39" s="41">
+        <v>58.95</v>
+      </c>
+      <c r="M39" s="41">
+        <v>0.2283</v>
+      </c>
+      <c r="N39" s="31">
+        <v>5</v>
+      </c>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
+      <c r="R39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T39" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD39" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="38">
+        <v>6</v>
+      </c>
+      <c r="B40" s="6">
+        <v>0</v>
+      </c>
+      <c r="C40" s="41">
+        <v>0.95779999999999998</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0.58130000000000004</v>
+      </c>
+      <c r="G40" s="41">
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="41">
+        <v>93.45</v>
+      </c>
+      <c r="J40" s="41">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="K40" s="41">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="L40" s="41">
+        <v>60.86</v>
+      </c>
+      <c r="M40" s="41">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="N40" s="31">
+        <v>6</v>
+      </c>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
+      <c r="R40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T40" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD40" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="38">
+        <v>7</v>
+      </c>
+      <c r="B41" s="6">
+        <v>0</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="6">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0.76129999999999998</v>
+      </c>
+      <c r="G41" s="41">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="41">
+        <v>93.88</v>
+      </c>
+      <c r="J41" s="41">
+        <v>0.52610000000000001</v>
+      </c>
+      <c r="K41" s="41">
+        <v>0.32450000000000001</v>
+      </c>
+      <c r="L41" s="41">
+        <v>40.65</v>
+      </c>
+      <c r="M41" s="41">
+        <v>0.51910000000000001</v>
+      </c>
+      <c r="N41" s="31">
+        <v>7</v>
+      </c>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
+      <c r="R41" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD41" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="38">
+        <v>8</v>
+      </c>
+      <c r="B42" s="6">
+        <v>0</v>
+      </c>
+      <c r="C42" s="41">
+        <v>0.5645</v>
+      </c>
+      <c r="D42" s="6">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0.67789999999999995</v>
+      </c>
+      <c r="G42" s="6">
+        <v>8.0299999999999996E-2</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="41">
+        <v>93.92</v>
+      </c>
+      <c r="J42" s="41">
+        <v>0.36020000000000002</v>
+      </c>
+      <c r="K42" s="41">
+        <v>0.32950000000000002</v>
+      </c>
+      <c r="L42" s="41">
+        <v>51.98</v>
+      </c>
+      <c r="M42" s="41">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="N42" s="31">
+        <v>8</v>
+      </c>
+      <c r="O42" s="38"/>
+      <c r="P42" s="38"/>
+      <c r="R42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T42" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD42" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="38">
+        <v>9</v>
+      </c>
+      <c r="B43" s="6">
+        <v>0</v>
+      </c>
+      <c r="C43" s="41">
+        <v>4.41E-2</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0.13120000000000001</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="6">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0.45240000000000002</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="41">
+        <v>95.98</v>
+      </c>
+      <c r="J43" s="41">
+        <v>6.13E-2</v>
+      </c>
+      <c r="K43" s="41">
+        <v>9.7900000000000001E-2</v>
+      </c>
+      <c r="L43" s="41">
+        <v>51.49</v>
+      </c>
+      <c r="M43" s="41">
+        <v>-0.23599999999999999</v>
+      </c>
+      <c r="N43" s="31">
+        <v>9</v>
+      </c>
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
+      <c r="R43" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T43" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AD30" s="9" t="s">
+      <c r="AD43" s="9" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="14">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="B32:K32"/>
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="L20:M20"/>
   </mergeCells>
-  <conditionalFormatting sqref="M19 L55:L1048576">
-    <cfRule type="cellIs" dxfId="18" priority="57" operator="between">
+  <conditionalFormatting sqref="M32 L68:L1048576">
+    <cfRule type="cellIs" dxfId="30" priority="69" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="58" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="70" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="71" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L19 K31:K1048576">
-    <cfRule type="cellIs" dxfId="15" priority="43" operator="lessThan">
+  <conditionalFormatting sqref="L32 K44:K1048576">
+    <cfRule type="cellIs" dxfId="27" priority="55" operator="lessThan">
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="56" operator="greaterThan">
+      <formula>25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35:J43">
+    <cfRule type="cellIs" dxfId="25" priority="34" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M35:M43">
+    <cfRule type="cellIs" dxfId="24" priority="38" operator="between">
+      <formula>0.5</formula>
+      <formula>0.8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="39" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="40" operator="greaterThan">
+      <formula>0.8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35:L43">
+    <cfRule type="cellIs" dxfId="21" priority="36" operator="lessThan">
+      <formula>-25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="37" operator="greaterThan">
+      <formula>25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36 D37 C39:C40 D39 C42:C43 D41:D43 E43 F38:G38 F40:G43">
+    <cfRule type="cellIs" dxfId="19" priority="35" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:J17">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9:M17">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="between">
+      <formula>0.5</formula>
+      <formula>0.8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="greaterThan">
+      <formula>0.8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:L17">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
+      <formula>-25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="greaterThan">
+      <formula>25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10 D11 C13:C14 D13 C16:C17 D15:D17 E17 F12:G12 F14:G17">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="between">
+      <formula>0.5</formula>
+      <formula>0.8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="greaterThan">
+      <formula>0.8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="lessThan">
+      <formula>-25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:J30">
-    <cfRule type="cellIs" dxfId="13" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22:M30">
-    <cfRule type="cellIs" dxfId="12" priority="26" operator="between">
-      <formula>0.5</formula>
-      <formula>0.8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="27" operator="lessThan">
-      <formula>0.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="28" operator="greaterThan">
-      <formula>0.8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L22:L30">
-    <cfRule type="cellIs" dxfId="9" priority="24" operator="lessThan">
-      <formula>-25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="25" operator="greaterThan">
-      <formula>25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23 D24 C26:C27 D26 C29:C30 D28:D30 E30 F25:G25 F27:G30">
-    <cfRule type="cellIs" dxfId="7" priority="23" operator="greaterThan">
-      <formula>0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9:J17">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M9:M17">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
@@ -3920,7 +5294,7 @@
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9:L17">
+  <conditionalFormatting sqref="L22:L30">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>-25</formula>
     </cfRule>
@@ -3928,7 +5302,7 @@
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10 D11 C13:C14 D13 C16:C17 D15:D17 E17 F12:G12 F14:G17">
+  <conditionalFormatting sqref="C23 D24 C26:C27 D26 C29:C30 D28:D30 E30 F25:G25 F27:G30">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
@@ -3940,6 +5314,2475 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAAA26A3-B809-4711-96F2-BAC7D8B2B0F1}">
+  <dimension ref="A1:A527"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="13"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="13"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="13"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="13"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="13"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="13"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="14" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="14" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="14" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="13"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="13"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="14" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="14" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="13"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="14" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="13"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="15" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="15" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="13"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="13"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="14" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="14" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="14" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="14" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="13"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="13"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="13"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="14" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="14" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="14" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="13"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="14" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="14" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="14" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="14" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="14" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="14" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="13"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="14" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="14" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="13"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="14" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="14" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="13"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="14" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="14" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="14" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="13"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="15" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="7" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="15" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="13"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="13"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="14" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="14" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="14" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="14" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="13"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="13"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="13"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="14" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="14" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="14" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="14" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="13"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="14" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="14" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="14" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="14" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="14" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="14" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="13"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="14" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="14" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="14" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="13"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="14" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="14" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="13"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="14" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="14" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="14" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="13"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="15" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="7" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="15" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="13"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="13"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="14" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="14" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="14" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="14" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="13"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="13"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="13"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="14" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="14" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="14" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="14" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="13"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="14" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="14" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="14" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="14" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="14" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="14" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="13"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="14" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="14" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="14" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="13"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="14" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="14" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="13"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="14" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="14" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="14" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="13"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="15" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="7" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="15" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="13"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="13"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="14" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="14" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="14" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="14" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="13"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="13"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="13"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="14" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="14" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="14" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="14" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="14" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="14" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="13"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="14" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="14" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="14" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="14" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="14" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="13"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="14" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="14" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="14" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="14" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="13"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="14" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="14" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="13"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="14" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="14" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="14" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="13"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="15" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="7" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="15" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="13"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="13"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="14" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="14" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="14" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="14" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="13"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="13"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="13"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="14" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="14" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="14" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="14" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="14" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="13"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="14" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="14" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="14" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="14" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="14" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="14" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="13"/>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="14" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="14" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="14" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="14" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="13"/>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="14" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="14" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="13"/>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="14" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="14" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="14" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="13"/>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="15" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="7" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="15" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="13"/>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="13"/>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="14" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="14" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="14" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="14" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="13"/>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="13"/>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="13"/>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="14" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="14" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="14" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="14" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="14" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="14" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="13"/>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="14" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="14" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="14" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="14" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="14" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" s="14" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="13"/>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="14" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="14" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="14" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="14" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="14" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" s="13"/>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" s="14" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" s="14" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" s="13"/>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" s="14" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" s="14" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" s="14" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" s="13"/>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" s="15" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" s="15" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" s="13"/>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" s="13"/>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" s="14" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" s="14" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" s="14" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" s="14" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" s="13"/>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" s="13"/>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" s="14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" s="13"/>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" s="14" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" s="14" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" s="14" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" s="14" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" s="14" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" s="14" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" s="14" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" s="13"/>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" s="14" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" s="14" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" s="14" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" s="14" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="14" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" s="14" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="13"/>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" s="14" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" s="14" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" s="14" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" s="14" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" s="14" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" s="14" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" s="13"/>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" s="14" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" s="14" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" s="13"/>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" s="14" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" s="14" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" s="14" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" s="16"/>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" s="16"/>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" s="60" t="s">
+        <v>656</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A07B362-4B6C-4C53-91E7-80B7BF97D2BC}">
   <dimension ref="A1:A528"/>
   <sheetViews>
@@ -6409,7 +10252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7110874D-1AB5-4D4C-BDF4-3EDF5D1201E0}">
   <dimension ref="A1:A530"/>
   <sheetViews>
